--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ZebraFishDataAnalysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>group</t>
   </si>
@@ -33,209 +28,335 @@
     <t>sttime</t>
   </si>
   <si>
-    <t>23:28</t>
-  </si>
-  <si>
-    <t>23:38</t>
-  </si>
-  <si>
-    <t>23:48</t>
-  </si>
-  <si>
-    <t>23:58</t>
-  </si>
-  <si>
-    <t>00:08</t>
-  </si>
-  <si>
-    <t>00:18</t>
-  </si>
-  <si>
-    <t>00:28</t>
-  </si>
-  <si>
-    <t>00:38</t>
-  </si>
-  <si>
-    <t>00:48</t>
-  </si>
-  <si>
-    <t>00:58</t>
-  </si>
-  <si>
-    <t>01:08</t>
-  </si>
-  <si>
-    <t>01:18</t>
-  </si>
-  <si>
-    <t>01:28</t>
-  </si>
-  <si>
-    <t>01:38</t>
-  </si>
-  <si>
-    <t>01:48</t>
-  </si>
-  <si>
-    <t>01:58</t>
-  </si>
-  <si>
-    <t>02:08</t>
-  </si>
-  <si>
-    <t>02:18</t>
-  </si>
-  <si>
-    <t>02:28</t>
-  </si>
-  <si>
-    <t>02:38</t>
-  </si>
-  <si>
-    <t>02:48</t>
-  </si>
-  <si>
-    <t>02:58</t>
-  </si>
-  <si>
-    <t>03:08</t>
-  </si>
-  <si>
-    <t>03:18</t>
-  </si>
-  <si>
-    <t>03:28</t>
-  </si>
-  <si>
-    <t>03:38</t>
-  </si>
-  <si>
-    <t>03:48</t>
-  </si>
-  <si>
-    <t>03:58</t>
-  </si>
-  <si>
-    <t>04:08</t>
-  </si>
-  <si>
-    <t>04:18</t>
-  </si>
-  <si>
-    <t>04:28</t>
-  </si>
-  <si>
-    <t>04:38</t>
-  </si>
-  <si>
-    <t>04:48</t>
-  </si>
-  <si>
-    <t>04:58</t>
-  </si>
-  <si>
-    <t>05:08</t>
-  </si>
-  <si>
-    <t>05:18</t>
-  </si>
-  <si>
-    <t>05:28</t>
-  </si>
-  <si>
-    <t>05:38</t>
-  </si>
-  <si>
-    <t>05:48</t>
-  </si>
-  <si>
-    <t>05:58</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>06:18</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>06:38</t>
-  </si>
-  <si>
-    <t>06:48</t>
-  </si>
-  <si>
-    <t>06:58</t>
-  </si>
-  <si>
-    <t>07:08</t>
-  </si>
-  <si>
-    <t>07:18</t>
-  </si>
-  <si>
-    <t>07:28</t>
-  </si>
-  <si>
-    <t>07:38</t>
-  </si>
-  <si>
-    <t>07:48</t>
-  </si>
-  <si>
-    <t>07:58</t>
-  </si>
-  <si>
-    <t>08:08</t>
-  </si>
-  <si>
-    <t>08:18</t>
-  </si>
-  <si>
-    <t>08:28</t>
-  </si>
-  <si>
-    <t>08:38</t>
-  </si>
-  <si>
-    <t>08:48</t>
-  </si>
-  <si>
-    <t>08:58</t>
-  </si>
-  <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>09:18</t>
-  </si>
-  <si>
-    <t>09:28</t>
-  </si>
-  <si>
-    <t>09:38</t>
-  </si>
-  <si>
-    <t>09:48</t>
-  </si>
-  <si>
-    <t>09:58</t>
-  </si>
-  <si>
-    <t>10:08</t>
-  </si>
-  <si>
-    <t>10:18</t>
+    <t>23:28:03</t>
+  </si>
+  <si>
+    <t>23:28:04</t>
+  </si>
+  <si>
+    <t>23:38:04</t>
+  </si>
+  <si>
+    <t>23:48:03</t>
+  </si>
+  <si>
+    <t>23:48:04</t>
+  </si>
+  <si>
+    <t>23:58:03</t>
+  </si>
+  <si>
+    <t>23:58:04</t>
+  </si>
+  <si>
+    <t>00:08:03</t>
+  </si>
+  <si>
+    <t>00:08:04</t>
+  </si>
+  <si>
+    <t>00:18:03</t>
+  </si>
+  <si>
+    <t>00:18:04</t>
+  </si>
+  <si>
+    <t>00:28:03</t>
+  </si>
+  <si>
+    <t>00:28:04</t>
+  </si>
+  <si>
+    <t>00:38:03</t>
+  </si>
+  <si>
+    <t>00:38:04</t>
+  </si>
+  <si>
+    <t>00:48:03</t>
+  </si>
+  <si>
+    <t>00:48:04</t>
+  </si>
+  <si>
+    <t>00:58:03</t>
+  </si>
+  <si>
+    <t>00:58:04</t>
+  </si>
+  <si>
+    <t>01:08:03</t>
+  </si>
+  <si>
+    <t>01:08:04</t>
+  </si>
+  <si>
+    <t>01:18:03</t>
+  </si>
+  <si>
+    <t>01:18:04</t>
+  </si>
+  <si>
+    <t>01:28:03</t>
+  </si>
+  <si>
+    <t>01:28:04</t>
+  </si>
+  <si>
+    <t>01:38:03</t>
+  </si>
+  <si>
+    <t>01:38:04</t>
+  </si>
+  <si>
+    <t>01:48:03</t>
+  </si>
+  <si>
+    <t>01:48:04</t>
+  </si>
+  <si>
+    <t>01:58:03</t>
+  </si>
+  <si>
+    <t>01:58:04</t>
+  </si>
+  <si>
+    <t>02:08:03</t>
+  </si>
+  <si>
+    <t>02:08:04</t>
+  </si>
+  <si>
+    <t>02:18:03</t>
+  </si>
+  <si>
+    <t>02:18:04</t>
+  </si>
+  <si>
+    <t>02:28:03</t>
+  </si>
+  <si>
+    <t>02:28:04</t>
+  </si>
+  <si>
+    <t>02:38:03</t>
+  </si>
+  <si>
+    <t>02:38:04</t>
+  </si>
+  <si>
+    <t>02:48:03</t>
+  </si>
+  <si>
+    <t>02:48:04</t>
+  </si>
+  <si>
+    <t>02:58:04</t>
+  </si>
+  <si>
+    <t>03:08:04</t>
+  </si>
+  <si>
+    <t>03:18:04</t>
+  </si>
+  <si>
+    <t>03:28:04</t>
+  </si>
+  <si>
+    <t>03:38:04</t>
+  </si>
+  <si>
+    <t>03:48:04</t>
+  </si>
+  <si>
+    <t>03:58:04</t>
+  </si>
+  <si>
+    <t>04:08:04</t>
+  </si>
+  <si>
+    <t>04:18:04</t>
+  </si>
+  <si>
+    <t>04:28:03</t>
+  </si>
+  <si>
+    <t>04:28:04</t>
+  </si>
+  <si>
+    <t>04:38:03</t>
+  </si>
+  <si>
+    <t>04:38:04</t>
+  </si>
+  <si>
+    <t>04:48:03</t>
+  </si>
+  <si>
+    <t>04:48:04</t>
+  </si>
+  <si>
+    <t>04:58:03</t>
+  </si>
+  <si>
+    <t>04:58:04</t>
+  </si>
+  <si>
+    <t>05:08:04</t>
+  </si>
+  <si>
+    <t>05:18:03</t>
+  </si>
+  <si>
+    <t>05:18:04</t>
+  </si>
+  <si>
+    <t>05:28:04</t>
+  </si>
+  <si>
+    <t>05:38:04</t>
+  </si>
+  <si>
+    <t>05:48:03</t>
+  </si>
+  <si>
+    <t>05:48:04</t>
+  </si>
+  <si>
+    <t>05:58:04</t>
+  </si>
+  <si>
+    <t>06:08:03</t>
+  </si>
+  <si>
+    <t>06:08:04</t>
+  </si>
+  <si>
+    <t>06:18:03</t>
+  </si>
+  <si>
+    <t>06:18:04</t>
+  </si>
+  <si>
+    <t>06:28:03</t>
+  </si>
+  <si>
+    <t>06:28:04</t>
+  </si>
+  <si>
+    <t>06:38:03</t>
+  </si>
+  <si>
+    <t>06:38:04</t>
+  </si>
+  <si>
+    <t>06:48:03</t>
+  </si>
+  <si>
+    <t>06:48:04</t>
+  </si>
+  <si>
+    <t>06:58:03</t>
+  </si>
+  <si>
+    <t>06:58:04</t>
+  </si>
+  <si>
+    <t>07:08:03</t>
+  </si>
+  <si>
+    <t>07:08:04</t>
+  </si>
+  <si>
+    <t>07:18:03</t>
+  </si>
+  <si>
+    <t>07:18:06</t>
+  </si>
+  <si>
+    <t>07:28:03</t>
+  </si>
+  <si>
+    <t>07:28:04</t>
+  </si>
+  <si>
+    <t>07:38:04</t>
+  </si>
+  <si>
+    <t>07:48:03</t>
+  </si>
+  <si>
+    <t>07:48:04</t>
+  </si>
+  <si>
+    <t>07:58:04</t>
+  </si>
+  <si>
+    <t>08:08:04</t>
+  </si>
+  <si>
+    <t>08:18:04</t>
+  </si>
+  <si>
+    <t>08:28:03</t>
+  </si>
+  <si>
+    <t>08:28:04</t>
+  </si>
+  <si>
+    <t>08:38:03</t>
+  </si>
+  <si>
+    <t>08:38:04</t>
+  </si>
+  <si>
+    <t>08:48:03</t>
+  </si>
+  <si>
+    <t>08:48:04</t>
+  </si>
+  <si>
+    <t>08:58:04</t>
+  </si>
+  <si>
+    <t>09:08:04</t>
+  </si>
+  <si>
+    <t>09:18:04</t>
+  </si>
+  <si>
+    <t>09:28:04</t>
+  </si>
+  <si>
+    <t>09:38:04</t>
+  </si>
+  <si>
+    <t>09:48:03</t>
+  </si>
+  <si>
+    <t>09:48:04</t>
+  </si>
+  <si>
+    <t>09:58:04</t>
+  </si>
+  <si>
+    <t>10:08:03</t>
+  </si>
+  <si>
+    <t>10:08:04</t>
+  </si>
+  <si>
+    <t>10:18:03</t>
+  </si>
+  <si>
+    <t>10:18:04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +419,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -352,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,10 +497,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +531,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,16 +706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -626,16 +735,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>134.45625000000001</v>
+        <v>134.45625</v>
       </c>
       <c r="D2">
-        <v>33.721874999999997</v>
+        <v>33.721875</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -646,13 +755,13 @@
         <v>182.1125000000001</v>
       </c>
       <c r="D3">
-        <v>39.075000000000003</v>
+        <v>39.075</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -660,16 +769,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>258.37812500000001</v>
+        <v>258.378125</v>
       </c>
       <c r="D4">
-        <v>50.687499999999993</v>
+        <v>50.68749999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -677,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>80.790624999999977</v>
+        <v>80.79062499999998</v>
       </c>
       <c r="D5">
-        <v>22.737500000000001</v>
+        <v>22.7375</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -694,16 +803,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>68.893749999999997</v>
+        <v>68.89375</v>
       </c>
       <c r="D6">
         <v>18.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -717,10 +826,10 @@
         <v>31.40625</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -731,13 +840,13 @@
         <v>122.09375</v>
       </c>
       <c r="D8">
-        <v>30.465624999999999</v>
+        <v>30.465625</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -751,10 +860,10 @@
         <v>25.921875</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -765,13 +874,13 @@
         <v>159.90625</v>
       </c>
       <c r="D10">
-        <v>36.421875000000007</v>
+        <v>36.42187500000001</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -779,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>100.13437500000001</v>
+        <v>100.134375</v>
       </c>
       <c r="D11">
-        <v>25.737500000000001</v>
+        <v>25.7375</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -796,16 +905,16 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>114.06874999999999</v>
+        <v>114.06875</v>
       </c>
       <c r="D12">
-        <v>27.278124999999999</v>
+        <v>27.278125</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -813,16 +922,16 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>176.30937499999999</v>
+        <v>176.309375</v>
       </c>
       <c r="D13">
-        <v>38.478124999999999</v>
+        <v>38.478125</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -830,16 +939,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>86.590625000000017</v>
+        <v>86.59062500000002</v>
       </c>
       <c r="D14">
-        <v>23.303124999999991</v>
+        <v>23.30312499999999</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -847,16 +956,16 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>88.709375000000023</v>
+        <v>88.70937500000002</v>
       </c>
       <c r="D15">
-        <v>21.746874999999999</v>
+        <v>21.746875</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -864,16 +973,16 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>222.21562499999999</v>
+        <v>222.215625</v>
       </c>
       <c r="D16">
-        <v>47.021875000000001</v>
+        <v>47.021875</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -881,16 +990,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>162.90624999999989</v>
+        <v>162.9062499999999</v>
       </c>
       <c r="D17">
-        <v>36.434375000000003</v>
+        <v>36.434375</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -901,13 +1010,13 @@
         <v>106.2</v>
       </c>
       <c r="D18">
-        <v>26.690625000000001</v>
+        <v>26.690625</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -915,16 +1024,16 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>200.52812499999999</v>
+        <v>200.528125</v>
       </c>
       <c r="D19">
-        <v>45.903124999999989</v>
+        <v>45.90312499999999</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -932,16 +1041,16 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>141.46562499999999</v>
+        <v>141.465625</v>
       </c>
       <c r="D20">
-        <v>31.534375000000001</v>
+        <v>31.534375</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -949,16 +1058,16 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>120.33750000000001</v>
+        <v>120.3375</v>
       </c>
       <c r="D21">
-        <v>28.521875000000001</v>
+        <v>28.521875</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -966,16 +1075,16 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>205.52812499999999</v>
+        <v>205.528125</v>
       </c>
       <c r="D22">
-        <v>42.862499999999997</v>
+        <v>42.8625</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -983,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>98.165625000000006</v>
+        <v>98.16562500000001</v>
       </c>
       <c r="D23">
-        <v>27.115625000000001</v>
+        <v>27.115625</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1000,16 +1109,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>102.38437500000001</v>
+        <v>102.384375</v>
       </c>
       <c r="D24">
-        <v>25.871874999999999</v>
+        <v>25.871875</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1020,13 +1129,13 @@
         <v>201.90625</v>
       </c>
       <c r="D25">
-        <v>41.725000000000001</v>
+        <v>41.725</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1034,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>160.64687499999999</v>
+        <v>160.646875</v>
       </c>
       <c r="D26">
-        <v>38.115625000000001</v>
+        <v>38.115625</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1054,13 +1163,13 @@
         <v>112.29375</v>
       </c>
       <c r="D27">
-        <v>28.425000000000001</v>
+        <v>28.425</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1068,16 +1177,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>199.02812499999999</v>
+        <v>199.028125</v>
       </c>
       <c r="D28">
-        <v>43.659374999999997</v>
+        <v>43.659375</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1085,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>100.75624999999999</v>
+        <v>100.75625</v>
       </c>
       <c r="D29">
-        <v>28.528124999999999</v>
+        <v>28.528125</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1105,13 +1214,13 @@
         <v>107.90625</v>
       </c>
       <c r="D30">
-        <v>25.290624999999999</v>
+        <v>25.290625</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1119,16 +1228,16 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>168.33125000000001</v>
+        <v>168.33125</v>
       </c>
       <c r="D31">
-        <v>39.568750000000001</v>
+        <v>39.56875</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1139,13 +1248,13 @@
         <v>100.98125</v>
       </c>
       <c r="D32">
-        <v>27.996874999999999</v>
+        <v>27.996875</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1153,16 +1262,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>117.77500000000001</v>
+        <v>117.775</v>
       </c>
       <c r="D33">
-        <v>29.006250000000001</v>
+        <v>29.00625</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1170,16 +1279,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>172.81874999999999</v>
+        <v>172.81875</v>
       </c>
       <c r="D34">
-        <v>41.528125000000003</v>
+        <v>41.528125</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1187,16 +1296,16 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>84.565625000000011</v>
+        <v>84.56562500000001</v>
       </c>
       <c r="D35">
-        <v>26.768750000000001</v>
+        <v>26.76875</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1204,16 +1313,16 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>188.37187499999999</v>
+        <v>188.371875</v>
       </c>
       <c r="D36">
         <v>30.21875</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1221,16 +1330,16 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>186.37187499999999</v>
+        <v>186.371875</v>
       </c>
       <c r="D37">
-        <v>42.059375000000003</v>
+        <v>42.059375</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1238,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>142.54374999999999</v>
+        <v>142.54375</v>
       </c>
       <c r="D38">
-        <v>29.612500000000001</v>
+        <v>29.6125</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1255,16 +1364,16 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>181.32187500000001</v>
+        <v>181.321875</v>
       </c>
       <c r="D39">
-        <v>33.084374999999987</v>
+        <v>33.08437499999999</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1272,16 +1381,16 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>203.58437499999999</v>
+        <v>203.584375</v>
       </c>
       <c r="D40">
-        <v>42.990625000000001</v>
+        <v>42.990625</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1289,16 +1398,16 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>201.97187500000001</v>
+        <v>201.971875</v>
       </c>
       <c r="D41">
-        <v>43.256249999999987</v>
+        <v>43.25624999999999</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1306,16 +1415,16 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>135.69374999999999</v>
+        <v>135.69375</v>
       </c>
       <c r="D42">
-        <v>30.428125000000001</v>
+        <v>30.428125</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1323,16 +1432,16 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>231.15937500000001</v>
+        <v>231.159375</v>
       </c>
       <c r="D43">
         <v>47.92499999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1343,13 +1452,13 @@
         <v>164.40625</v>
       </c>
       <c r="D44">
-        <v>38.996875000000003</v>
+        <v>38.996875</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1360,13 +1469,13 @@
         <v>107.3875</v>
       </c>
       <c r="D45">
-        <v>27.196874999999999</v>
+        <v>27.196875</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1374,16 +1483,16 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>252.75312500000001</v>
+        <v>252.753125</v>
       </c>
       <c r="D46">
-        <v>50.334375000000001</v>
+        <v>50.334375</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1394,13 +1503,13 @@
         <v>311.5968749999999</v>
       </c>
       <c r="D47">
-        <v>43.990624999999987</v>
+        <v>43.99062499999999</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1408,16 +1517,16 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>153.81874999999999</v>
+        <v>153.81875</v>
       </c>
       <c r="D48">
         <v>30.15625</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1425,16 +1534,16 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>366.67187499999989</v>
+        <v>366.6718749999999</v>
       </c>
       <c r="D49">
-        <v>56.603125000000013</v>
+        <v>56.60312500000001</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1442,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>311.96249999999992</v>
+        <v>311.9624999999999</v>
       </c>
       <c r="D50">
-        <v>38.812500000000007</v>
+        <v>38.81250000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1459,16 +1568,16 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>142.30937499999999</v>
+        <v>142.309375</v>
       </c>
       <c r="D51">
         <v>29.99687500000001</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1476,16 +1585,16 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>427.93124999999998</v>
+        <v>427.93125</v>
       </c>
       <c r="D52">
-        <v>57.671875000000007</v>
+        <v>57.67187500000001</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1496,13 +1605,13 @@
         <v>367.3562500000001</v>
       </c>
       <c r="D53">
-        <v>42.643750000000011</v>
+        <v>42.64375000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1513,13 +1622,13 @@
         <v>97.61562499999998</v>
       </c>
       <c r="D54">
-        <v>26.725000000000001</v>
+        <v>26.725</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1527,16 +1636,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>339.26249999999999</v>
+        <v>339.2625</v>
       </c>
       <c r="D55">
-        <v>55.881250000000023</v>
+        <v>55.88125000000002</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1550,10 +1659,10 @@
         <v>38.578125</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1564,13 +1673,13 @@
         <v>112.171875</v>
       </c>
       <c r="D57">
-        <v>25.615625000000001</v>
+        <v>25.615625</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1578,16 +1687,16 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>486.80312500000002</v>
+        <v>486.803125</v>
       </c>
       <c r="D58">
         <v>69.421875</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1595,16 +1704,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>312.75625000000008</v>
+        <v>312.7562500000001</v>
       </c>
       <c r="D59">
-        <v>47.346874999999997</v>
+        <v>47.346875</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1615,13 +1724,13 @@
         <v>179.55</v>
       </c>
       <c r="D60">
-        <v>36.431249999999991</v>
+        <v>36.43124999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1629,16 +1738,16 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>410.81562500000001</v>
+        <v>410.815625</v>
       </c>
       <c r="D61">
-        <v>66.440624999999983</v>
+        <v>66.44062499999998</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1646,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>232.45625000000001</v>
+        <v>232.45625</v>
       </c>
       <c r="D62">
-        <v>49.053125000000023</v>
+        <v>49.05312500000002</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1663,16 +1772,16 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>147.66562500000001</v>
+        <v>147.665625</v>
       </c>
       <c r="D63">
-        <v>31.946874999999999</v>
+        <v>31.946875</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1680,16 +1789,16 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>565.09062500000005</v>
+        <v>565.090625</v>
       </c>
       <c r="D64">
-        <v>66.165625000000006</v>
+        <v>66.16562500000001</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1700,13 +1809,13 @@
         <v>303.578125</v>
       </c>
       <c r="D65">
-        <v>56.984374999999993</v>
+        <v>56.98437499999999</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1717,13 +1826,13 @@
         <v>153.15</v>
       </c>
       <c r="D66">
-        <v>29.481249999999999</v>
+        <v>29.48125</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1731,16 +1840,16 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>527.94687499999998</v>
+        <v>527.946875</v>
       </c>
       <c r="D67">
-        <v>63.149999999999991</v>
+        <v>63.14999999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1748,16 +1857,16 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>271.39375000000001</v>
+        <v>271.39375</v>
       </c>
       <c r="D68">
-        <v>49.703124999999993</v>
+        <v>49.70312499999999</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1768,13 +1877,13 @@
         <v>148.71875</v>
       </c>
       <c r="D69">
-        <v>29.943749999999991</v>
+        <v>29.94374999999999</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1782,16 +1891,16 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>495.89999999999992</v>
+        <v>495.8999999999999</v>
       </c>
       <c r="D70">
-        <v>68.874999999999986</v>
+        <v>68.87499999999999</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1799,16 +1908,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>408.33437500000008</v>
+        <v>408.3343750000001</v>
       </c>
       <c r="D71">
-        <v>53.043750000000017</v>
+        <v>53.04375000000002</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1816,16 +1925,16 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>155.64687499999999</v>
+        <v>155.646875</v>
       </c>
       <c r="D72">
-        <v>32.896875000000001</v>
+        <v>32.896875</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1833,16 +1942,16 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>423.88125000000002</v>
+        <v>423.88125</v>
       </c>
       <c r="D73">
-        <v>68.206249999999997</v>
+        <v>68.20625</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1850,16 +1959,16 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>528.77812499999993</v>
+        <v>528.7781249999999</v>
       </c>
       <c r="D74">
-        <v>60.262500000000003</v>
+        <v>60.2625</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1867,16 +1976,16 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>157.01249999999999</v>
+        <v>157.0125</v>
       </c>
       <c r="D75">
-        <v>32.809375000000003</v>
+        <v>32.809375</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1884,16 +1993,16 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>491.08437500000002</v>
+        <v>491.084375</v>
       </c>
       <c r="D76">
-        <v>68.237500000000011</v>
+        <v>68.23750000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1901,16 +2010,16 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>516.03125000000011</v>
+        <v>516.0312500000001</v>
       </c>
       <c r="D77">
         <v>61.55</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1918,16 +2027,16 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>182.19374999999999</v>
+        <v>182.19375</v>
       </c>
       <c r="D78">
-        <v>37.778125000000003</v>
+        <v>37.778125</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1935,16 +2044,16 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>521.36562500000002</v>
+        <v>521.365625</v>
       </c>
       <c r="D79">
         <v>72.90000000000002</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1952,16 +2061,16 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>352.91874999999999</v>
+        <v>352.91875</v>
       </c>
       <c r="D80">
-        <v>53.743750000000013</v>
+        <v>53.74375000000001</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1969,16 +2078,16 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>85.715625000000003</v>
+        <v>85.715625</v>
       </c>
       <c r="D81">
         <v>25.26874999999999</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1986,16 +2095,16 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>496.70312500000011</v>
+        <v>496.7031250000001</v>
       </c>
       <c r="D82">
-        <v>67.290625000000006</v>
+        <v>67.29062500000001</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2003,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>270.42187500000011</v>
+        <v>270.4218750000001</v>
       </c>
       <c r="D83">
-        <v>44.946874999999999</v>
+        <v>44.946875</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2020,16 +2129,16 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>117.30625000000001</v>
+        <v>117.30625</v>
       </c>
       <c r="D84">
-        <v>27.646875000000001</v>
+        <v>27.646875</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2037,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>706.90624999999989</v>
+        <v>706.9062499999999</v>
       </c>
       <c r="D85">
-        <v>81.346875000000026</v>
+        <v>81.34687500000003</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2054,16 +2163,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>534.83437499999991</v>
+        <v>534.8343749999999</v>
       </c>
       <c r="D86">
         <v>49.58124999999999</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2077,10 +2186,10 @@
         <v>28.71875</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2091,13 +2200,13 @@
         <v>595.4375</v>
       </c>
       <c r="D88">
-        <v>80.731250000000017</v>
+        <v>80.73125000000002</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2105,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>613.49374999999998</v>
+        <v>613.49375</v>
       </c>
       <c r="D89">
-        <v>59.415624999999991</v>
+        <v>59.41562499999999</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2122,16 +2231,16 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>157.39687499999999</v>
+        <v>157.396875</v>
       </c>
       <c r="D90">
         <v>32.46875</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2139,16 +2248,16 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>425.99687499999987</v>
+        <v>425.9968749999999</v>
       </c>
       <c r="D91">
-        <v>66.365625000000009</v>
+        <v>66.36562500000001</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2156,16 +2265,16 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>402.18124999999998</v>
+        <v>402.18125</v>
       </c>
       <c r="D92">
-        <v>53.425000000000011</v>
+        <v>53.42500000000001</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2173,16 +2282,16 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>158.67500000000001</v>
+        <v>158.675</v>
       </c>
       <c r="D93">
-        <v>29.715624999999999</v>
+        <v>29.715625</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2190,16 +2299,16 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>627.30312500000002</v>
+        <v>627.303125</v>
       </c>
       <c r="D94">
-        <v>76.371875000000017</v>
+        <v>76.37187500000002</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2207,16 +2316,16 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>324.81249999999989</v>
+        <v>324.8124999999999</v>
       </c>
       <c r="D95">
         <v>48.71875</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2224,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>136.69999999999999</v>
+        <v>136.7</v>
       </c>
       <c r="D96">
         <v>30.34375</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2241,16 +2350,16 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>598.91250000000002</v>
+        <v>598.9125</v>
       </c>
       <c r="D97">
         <v>75.88124999999998</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2258,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>425.78749999999991</v>
+        <v>425.7874999999999</v>
       </c>
       <c r="D98">
-        <v>57.834375000000001</v>
+        <v>57.834375</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2281,10 +2390,10 @@
         <v>29.1</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2292,16 +2401,16 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>595.91874999999993</v>
+        <v>595.9187499999999</v>
       </c>
       <c r="D100">
-        <v>65.062500000000014</v>
+        <v>65.06250000000001</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2309,16 +2418,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>494.77499999999998</v>
+        <v>494.775</v>
       </c>
       <c r="D101">
-        <v>65.493749999999977</v>
+        <v>65.49374999999998</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2326,16 +2435,16 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>180.25625000000011</v>
+        <v>180.2562500000001</v>
       </c>
       <c r="D102">
-        <v>34.478124999999999</v>
+        <v>34.478125</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2343,16 +2452,16 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>646.55000000000007</v>
+        <v>646.5500000000001</v>
       </c>
       <c r="D103">
-        <v>75.506249999999994</v>
+        <v>75.50624999999999</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2360,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>467.77187500000002</v>
+        <v>467.771875</v>
       </c>
       <c r="D104">
-        <v>63.712500000000013</v>
+        <v>63.71250000000001</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2383,10 +2492,10 @@
         <v>23.95</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2394,16 +2503,16 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>685.95624999999995</v>
+        <v>685.95625</v>
       </c>
       <c r="D106">
-        <v>84.100000000000009</v>
+        <v>84.10000000000001</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2411,16 +2520,16 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>631.40312500000016</v>
+        <v>631.4031250000002</v>
       </c>
       <c r="D107">
-        <v>74.887500000000017</v>
+        <v>74.88750000000002</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2428,16 +2537,16 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>83.543750000000031</v>
+        <v>83.54375000000003</v>
       </c>
       <c r="D108">
         <v>21.515625</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2445,16 +2554,16 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>764.43124999999975</v>
+        <v>764.4312499999997</v>
       </c>
       <c r="D109">
-        <v>83.931249999999991</v>
+        <v>83.93124999999999</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2462,16 +2571,16 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>759.33124999999995</v>
+        <v>759.33125</v>
       </c>
       <c r="D110">
-        <v>81.521875000000009</v>
+        <v>81.52187500000001</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2479,16 +2588,16 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>165.74687499999999</v>
+        <v>165.746875</v>
       </c>
       <c r="D111">
-        <v>31.459375000000001</v>
+        <v>31.459375</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2496,16 +2605,16 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>596.43125000000009</v>
+        <v>596.4312500000001</v>
       </c>
       <c r="D112">
-        <v>75.681250000000006</v>
+        <v>75.68125000000001</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2513,16 +2622,16 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>863.14375000000018</v>
+        <v>863.1437500000002</v>
       </c>
       <c r="D113">
-        <v>94.681249999999991</v>
+        <v>94.68124999999999</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2530,16 +2639,16 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>174.26875000000001</v>
+        <v>174.26875</v>
       </c>
       <c r="D114">
-        <v>31.831250000000001</v>
+        <v>31.83125</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2547,16 +2656,16 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>792.84062500000005</v>
+        <v>792.840625</v>
       </c>
       <c r="D115">
-        <v>85.484374999999986</v>
+        <v>85.48437499999999</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2564,16 +2673,16 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>748.00625000000002</v>
+        <v>748.00625</v>
       </c>
       <c r="D116">
-        <v>89.909374999999983</v>
+        <v>89.90937499999998</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2581,16 +2690,16 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>145.52187499999999</v>
+        <v>145.521875</v>
       </c>
       <c r="D117">
-        <v>28.209374999999991</v>
+        <v>28.20937499999999</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2598,16 +2707,16 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>888.72812499999998</v>
+        <v>888.728125</v>
       </c>
       <c r="D118">
-        <v>78.778125000000003</v>
+        <v>78.778125</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2615,16 +2724,16 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>535.19687500000009</v>
+        <v>535.1968750000001</v>
       </c>
       <c r="D119">
         <v>81.53749999999998</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2632,16 +2741,16 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>141.80937499999999</v>
+        <v>141.809375</v>
       </c>
       <c r="D120">
-        <v>28.934374999999999</v>
+        <v>28.934375</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2649,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>883.80625000000009</v>
+        <v>883.8062500000001</v>
       </c>
       <c r="D121">
-        <v>79.990624999999994</v>
+        <v>79.99062499999999</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2666,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>543.66250000000002</v>
+        <v>543.6625</v>
       </c>
       <c r="D122">
         <v>87.28125</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2686,13 +2795,13 @@
         <v>124.91875</v>
       </c>
       <c r="D123">
-        <v>27.871874999999999</v>
+        <v>27.871875</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2700,16 +2809,16 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>796.98124999999982</v>
+        <v>796.9812499999998</v>
       </c>
       <c r="D124">
-        <v>75.615625000000009</v>
+        <v>75.61562500000001</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2717,16 +2826,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>738.00624999999991</v>
+        <v>738.0062499999999</v>
       </c>
       <c r="D125">
-        <v>88.162500000000009</v>
+        <v>88.16250000000001</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2734,16 +2843,16 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>104.38124999999999</v>
+        <v>104.38125</v>
       </c>
       <c r="D126">
-        <v>26.368749999999999</v>
+        <v>26.36875</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2751,16 +2860,16 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>926.86249999999995</v>
+        <v>926.8625</v>
       </c>
       <c r="D127">
-        <v>87.612500000000011</v>
+        <v>87.61250000000001</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2768,16 +2877,16 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>864.20000000000027</v>
+        <v>864.2000000000003</v>
       </c>
       <c r="D128">
-        <v>93.731250000000003</v>
+        <v>93.73125</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2785,16 +2894,16 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>137.61250000000001</v>
+        <v>137.6125</v>
       </c>
       <c r="D129">
-        <v>29.831250000000001</v>
+        <v>29.83125</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2802,16 +2911,16 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>852.03437500000007</v>
+        <v>852.0343750000001</v>
       </c>
       <c r="D130">
-        <v>90.771875000000009</v>
+        <v>90.77187500000001</v>
       </c>
       <c r="E130" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2819,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>749.31562500000007</v>
+        <v>749.3156250000001</v>
       </c>
       <c r="D131">
         <v>90.140625</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2836,16 +2945,16 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>98.184374999999974</v>
+        <v>98.18437499999997</v>
       </c>
       <c r="D132">
-        <v>26.440625000000001</v>
+        <v>26.440625</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2853,16 +2962,16 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>887.07812499999989</v>
+        <v>887.0781249999999</v>
       </c>
       <c r="D133">
-        <v>94.615625000000009</v>
+        <v>94.61562500000001</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2870,16 +2979,16 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>595.17500000000018</v>
+        <v>595.1750000000002</v>
       </c>
       <c r="D134">
-        <v>86.918750000000031</v>
+        <v>86.91875000000003</v>
       </c>
       <c r="E134" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2887,16 +2996,16 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>98.040625000000006</v>
+        <v>98.04062500000001</v>
       </c>
       <c r="D135">
-        <v>23.818750000000001</v>
+        <v>23.81875</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2904,16 +3013,16 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>841.91562499999998</v>
+        <v>841.915625</v>
       </c>
       <c r="D136">
-        <v>94.434375000000003</v>
+        <v>94.434375</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2921,16 +3030,16 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>629.48125000000016</v>
+        <v>629.4812500000002</v>
       </c>
       <c r="D137">
-        <v>87.806250000000006</v>
+        <v>87.80625000000001</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2938,16 +3047,16 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>110.92812499999999</v>
+        <v>110.928125</v>
       </c>
       <c r="D138">
-        <v>25.915625000000009</v>
+        <v>25.91562500000001</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2955,16 +3064,16 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>945.89687499999991</v>
+        <v>945.8968749999999</v>
       </c>
       <c r="D139">
         <v>108.8625</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2972,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>860.03750000000002</v>
+        <v>860.0375</v>
       </c>
       <c r="D140">
-        <v>94.674999999999983</v>
+        <v>94.67499999999998</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2989,16 +3098,16 @@
         <v>2</v>
       </c>
       <c r="C141">
-        <v>128.86875000000001</v>
+        <v>128.86875</v>
       </c>
       <c r="D141">
-        <v>30.406249999999989</v>
+        <v>30.40624999999999</v>
       </c>
       <c r="E141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3006,16 +3115,16 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>779.11250000000007</v>
+        <v>779.1125000000001</v>
       </c>
       <c r="D142">
-        <v>100.97499999999999</v>
+        <v>100.975</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3029,10 +3138,10 @@
         <v>100.034375</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3043,13 +3152,13 @@
         <v>191.0187499999999</v>
       </c>
       <c r="D144">
-        <v>31.165624999999999</v>
+        <v>31.165625</v>
       </c>
       <c r="E144" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3057,16 +3166,16 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>730.47187499999995</v>
+        <v>730.471875</v>
       </c>
       <c r="D145">
-        <v>93.040625000000006</v>
+        <v>93.04062500000001</v>
       </c>
       <c r="E145" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3074,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>1187.6468749999999</v>
+        <v>1187.646875</v>
       </c>
       <c r="D146">
         <v>112.878125</v>
       </c>
       <c r="E146" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3091,16 +3200,16 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>145.61562499999999</v>
+        <v>145.615625</v>
       </c>
       <c r="D147">
-        <v>27.481249999999999</v>
+        <v>27.48125</v>
       </c>
       <c r="E147" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3108,16 +3217,16 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>768.93437500000016</v>
+        <v>768.9343750000002</v>
       </c>
       <c r="D148">
         <v>101.8875</v>
       </c>
       <c r="E148" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3131,10 +3240,10 @@
         <v>119.55</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3142,16 +3251,16 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>135.66249999999999</v>
+        <v>135.6625</v>
       </c>
       <c r="D150">
-        <v>32.209374999999987</v>
+        <v>32.20937499999999</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3165,10 +3274,10 @@
         <v>113.046875</v>
       </c>
       <c r="E151" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3179,13 +3288,13 @@
         <v>1486.4375</v>
       </c>
       <c r="D152">
-        <v>135.79374999999999</v>
+        <v>135.79375</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3196,13 +3305,13 @@
         <v>155.171875</v>
       </c>
       <c r="D153">
-        <v>33.037499999999987</v>
+        <v>33.03749999999999</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3210,16 +3319,16 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>963.25312500000007</v>
+        <v>963.2531250000001</v>
       </c>
       <c r="D154">
-        <v>107.71250000000001</v>
+        <v>107.7125</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3230,13 +3339,13 @@
         <v>1097.9375</v>
       </c>
       <c r="D155">
-        <v>110.49062499999999</v>
+        <v>110.490625</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3247,13 +3356,13 @@
         <v>117.21875</v>
       </c>
       <c r="D156">
-        <v>32.725000000000001</v>
+        <v>32.725</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3267,10 +3376,10 @@
         <v>114.175</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3284,10 +3393,10 @@
         <v>103.309375</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3295,16 +3404,16 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>128.31874999999999</v>
+        <v>128.31875</v>
       </c>
       <c r="D159">
-        <v>31.634374999999991</v>
+        <v>31.63437499999999</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3312,16 +3421,16 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>1236.7281250000001</v>
+        <v>1236.728125</v>
       </c>
       <c r="D160">
         <v>122.35625</v>
       </c>
       <c r="E160" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3332,13 +3441,13 @@
         <v>1232.54375</v>
       </c>
       <c r="D161">
-        <v>114.21250000000001</v>
+        <v>114.2125</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3352,10 +3461,10 @@
         <v>29.296875</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3363,16 +3472,16 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>914.87812499999984</v>
+        <v>914.8781249999998</v>
       </c>
       <c r="D163">
         <v>106.65625</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3380,16 +3489,16 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>1479.6031250000001</v>
+        <v>1479.603125</v>
       </c>
       <c r="D164">
-        <v>128.92500000000001</v>
+        <v>128.925</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3397,16 +3506,16 @@
         <v>2</v>
       </c>
       <c r="C165">
-        <v>101.75937500000001</v>
+        <v>101.759375</v>
       </c>
       <c r="D165">
         <v>28.03125</v>
       </c>
       <c r="E165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3417,13 +3526,13 @@
         <v>1401.6125</v>
       </c>
       <c r="D166">
-        <v>124.04062500000001</v>
+        <v>124.040625</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3434,13 +3543,13 @@
         <v>1623.903125</v>
       </c>
       <c r="D167">
-        <v>140.93437499999999</v>
+        <v>140.934375</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3454,10 +3563,10 @@
         <v>26.640625</v>
       </c>
       <c r="E168" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3468,13 +3577,13 @@
         <v>1536.128125</v>
       </c>
       <c r="D169">
-        <v>137.72499999999999</v>
+        <v>137.725</v>
       </c>
       <c r="E169" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3485,13 +3594,13 @@
         <v>1939.596875</v>
       </c>
       <c r="D170">
-        <v>151.35312500000001</v>
+        <v>151.353125</v>
       </c>
       <c r="E170" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3499,16 +3608,16 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>90.018749999999997</v>
+        <v>90.01875</v>
       </c>
       <c r="D171">
-        <v>27.840624999999999</v>
+        <v>27.840625</v>
       </c>
       <c r="E171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3516,16 +3625,16 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>1168.0093750000001</v>
+        <v>1168.009375</v>
       </c>
       <c r="D172">
         <v>127.003125</v>
       </c>
       <c r="E172" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3536,13 +3645,13 @@
         <v>2005.071874999999</v>
       </c>
       <c r="D173">
-        <v>159.23750000000001</v>
+        <v>159.2375</v>
       </c>
       <c r="E173" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3550,16 +3659,16 @@
         <v>2</v>
       </c>
       <c r="C174">
-        <v>153.23437499999989</v>
+        <v>153.2343749999999</v>
       </c>
       <c r="D174">
         <v>34.33124999999999</v>
       </c>
       <c r="E174" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3573,10 +3682,10 @@
         <v>126.875</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3584,16 +3693,16 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1873.8843750000001</v>
+        <v>1873.884375</v>
       </c>
       <c r="D176">
-        <v>144.67500000000001</v>
+        <v>144.675</v>
       </c>
       <c r="E176" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3601,16 +3710,16 @@
         <v>2</v>
       </c>
       <c r="C177">
-        <v>117.22499999999999</v>
+        <v>117.225</v>
       </c>
       <c r="D177">
         <v>24.515625</v>
       </c>
       <c r="E177" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3621,13 +3730,13 @@
         <v>1169.51875</v>
       </c>
       <c r="D178">
-        <v>133.02812499999999</v>
+        <v>133.028125</v>
       </c>
       <c r="E178" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3638,13 +3747,13 @@
         <v>1695.421875</v>
       </c>
       <c r="D179">
-        <v>157.05000000000001</v>
+        <v>157.05</v>
       </c>
       <c r="E179" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3652,16 +3761,16 @@
         <v>2</v>
       </c>
       <c r="C180">
-        <v>106.77187499999999</v>
+        <v>106.771875</v>
       </c>
       <c r="D180">
-        <v>27.415624999999999</v>
+        <v>27.415625</v>
       </c>
       <c r="E180" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3672,13 +3781,13 @@
         <v>1400.23125</v>
       </c>
       <c r="D181">
-        <v>155.12187499999999</v>
+        <v>155.121875</v>
       </c>
       <c r="E181" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3686,16 +3795,16 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>1632.0374999999999</v>
+        <v>1632.0375</v>
       </c>
       <c r="D182">
-        <v>144.60312500000001</v>
+        <v>144.603125</v>
       </c>
       <c r="E182" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3709,10 +3818,10 @@
         <v>26.46875</v>
       </c>
       <c r="E183" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3720,16 +3829,16 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>1310.5562500000001</v>
+        <v>1310.55625</v>
       </c>
       <c r="D184">
-        <v>161.55000000000001</v>
+        <v>161.55</v>
       </c>
       <c r="E184" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3737,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>2074.2218750000002</v>
+        <v>2074.221875</v>
       </c>
       <c r="D185">
-        <v>159.64687499999999</v>
+        <v>159.646875</v>
       </c>
       <c r="E185" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3754,16 +3863,16 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>219.91562500000001</v>
+        <v>219.915625</v>
       </c>
       <c r="D186">
         <v>39.375</v>
       </c>
       <c r="E186" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3771,16 +3880,16 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>1236.5250000000001</v>
+        <v>1236.525</v>
       </c>
       <c r="D187">
-        <v>154.27500000000001</v>
+        <v>154.275</v>
       </c>
       <c r="E187" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3788,16 +3897,16 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>2077.3156250000011</v>
+        <v>2077.315625000001</v>
       </c>
       <c r="D188">
         <v>168.78125</v>
       </c>
       <c r="E188" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3805,16 +3914,16 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>203.30625000000001</v>
+        <v>203.30625</v>
       </c>
       <c r="D189">
-        <v>39.193750000000001</v>
+        <v>39.19375</v>
       </c>
       <c r="E189" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3822,16 +3931,16 @@
         <v>3</v>
       </c>
       <c r="C190">
-        <v>1111.9906249999999</v>
+        <v>1111.990625</v>
       </c>
       <c r="D190">
-        <v>145.75624999999999</v>
+        <v>145.75625</v>
       </c>
       <c r="E190" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3842,13 +3951,13 @@
         <v>1955.15625</v>
       </c>
       <c r="D191">
-        <v>147.02500000000001</v>
+        <v>147.025</v>
       </c>
       <c r="E191" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3856,16 +3965,16 @@
         <v>2</v>
       </c>
       <c r="C192">
-        <v>188.66562500000001</v>
+        <v>188.665625</v>
       </c>
       <c r="D192">
-        <v>42.731250000000003</v>
+        <v>42.73125</v>
       </c>
       <c r="E192" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3873,16 +3982,16 @@
         <v>3</v>
       </c>
       <c r="C193">
-        <v>934.53437499999995</v>
+        <v>934.534375</v>
       </c>
       <c r="D193">
-        <v>135.77187499999999</v>
+        <v>135.771875</v>
       </c>
       <c r="E193" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3893,13 +4002,13 @@
         <v>2038.1875</v>
       </c>
       <c r="D194">
-        <v>149.31874999999999</v>
+        <v>149.31875</v>
       </c>
       <c r="E194" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3910,13 +4019,13 @@
         <v>155.7156249999999</v>
       </c>
       <c r="D195">
-        <v>37.221874999999997</v>
+        <v>37.221875</v>
       </c>
       <c r="E195" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3924,16 +4033,16 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>888.17500000000018</v>
+        <v>888.1750000000002</v>
       </c>
       <c r="D196">
         <v>126.421875</v>
       </c>
       <c r="E196" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3944,13 +4053,13 @@
         <v>1837.153125000001</v>
       </c>
       <c r="D197">
-        <v>132.17812499999999</v>
+        <v>132.178125</v>
       </c>
       <c r="E197" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3961,13 +4070,13 @@
         <v>160.4375</v>
       </c>
       <c r="D198">
-        <v>35.393749999999997</v>
+        <v>35.39375</v>
       </c>
       <c r="E198" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3975,13 +4084,13 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>894.75625000000002</v>
+        <v>894.75625</v>
       </c>
       <c r="D199">
         <v>123.35625</v>
       </c>
       <c r="E199" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ZebraFishDataAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="112">
   <si>
     <t>group</t>
   </si>
@@ -355,8 +360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +424,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,9 +510,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,6 +545,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,14 +721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200:E397"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -735,16 +752,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>134.45625</v>
+        <v>134.45625000000001</v>
       </c>
       <c r="D2">
-        <v>33.721875</v>
+        <v>33.721874999999997</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -755,13 +772,13 @@
         <v>182.1125000000001</v>
       </c>
       <c r="D3">
-        <v>39.075</v>
+        <v>39.075000000000003</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -769,16 +786,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>258.378125</v>
+        <v>258.37812500000001</v>
       </c>
       <c r="D4">
-        <v>50.68749999999999</v>
+        <v>50.687499999999993</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -786,16 +803,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>80.79062499999998</v>
+        <v>80.790624999999977</v>
       </c>
       <c r="D5">
-        <v>22.7375</v>
+        <v>22.737500000000001</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -803,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>68.89375</v>
+        <v>68.893749999999997</v>
       </c>
       <c r="D6">
         <v>18.3125</v>
@@ -812,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -829,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -840,13 +857,13 @@
         <v>122.09375</v>
       </c>
       <c r="D8">
-        <v>30.465625</v>
+        <v>30.465624999999999</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -863,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -874,13 +891,13 @@
         <v>159.90625</v>
       </c>
       <c r="D10">
-        <v>36.42187500000001</v>
+        <v>36.421875000000007</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -888,16 +905,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>100.134375</v>
+        <v>100.13437500000001</v>
       </c>
       <c r="D11">
-        <v>25.7375</v>
+        <v>25.737500000000001</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -905,16 +922,16 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>114.06875</v>
+        <v>114.06874999999999</v>
       </c>
       <c r="D12">
-        <v>27.278125</v>
+        <v>27.278124999999999</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -922,16 +939,16 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>176.309375</v>
+        <v>176.30937499999999</v>
       </c>
       <c r="D13">
-        <v>38.478125</v>
+        <v>38.478124999999999</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -939,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>86.59062500000002</v>
+        <v>86.590625000000017</v>
       </c>
       <c r="D14">
-        <v>23.30312499999999</v>
+        <v>23.303124999999991</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -956,16 +973,16 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>88.70937500000002</v>
+        <v>88.709375000000023</v>
       </c>
       <c r="D15">
-        <v>21.746875</v>
+        <v>21.746874999999999</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -973,16 +990,16 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>222.215625</v>
+        <v>222.21562499999999</v>
       </c>
       <c r="D16">
-        <v>47.021875</v>
+        <v>47.021875000000001</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -990,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>162.9062499999999</v>
+        <v>162.90624999999989</v>
       </c>
       <c r="D17">
-        <v>36.434375</v>
+        <v>36.434375000000003</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1010,13 +1027,13 @@
         <v>106.2</v>
       </c>
       <c r="D18">
-        <v>26.690625</v>
+        <v>26.690625000000001</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1024,16 +1041,16 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>200.528125</v>
+        <v>200.52812499999999</v>
       </c>
       <c r="D19">
-        <v>45.90312499999999</v>
+        <v>45.903124999999989</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1041,16 +1058,16 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>141.465625</v>
+        <v>141.46562499999999</v>
       </c>
       <c r="D20">
-        <v>31.534375</v>
+        <v>31.534375000000001</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1058,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>120.3375</v>
+        <v>120.33750000000001</v>
       </c>
       <c r="D21">
-        <v>28.521875</v>
+        <v>28.521875000000001</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1075,16 +1092,16 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>205.528125</v>
+        <v>205.52812499999999</v>
       </c>
       <c r="D22">
-        <v>42.8625</v>
+        <v>42.862499999999997</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1092,16 +1109,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>98.16562500000001</v>
+        <v>98.165625000000006</v>
       </c>
       <c r="D23">
-        <v>27.115625</v>
+        <v>27.115625000000001</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1109,16 +1126,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>102.384375</v>
+        <v>102.38437500000001</v>
       </c>
       <c r="D24">
-        <v>25.871875</v>
+        <v>25.871874999999999</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1129,13 +1146,13 @@
         <v>201.90625</v>
       </c>
       <c r="D25">
-        <v>41.725</v>
+        <v>41.725000000000001</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1143,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>160.646875</v>
+        <v>160.64687499999999</v>
       </c>
       <c r="D26">
-        <v>38.115625</v>
+        <v>38.115625000000001</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1163,13 +1180,13 @@
         <v>112.29375</v>
       </c>
       <c r="D27">
-        <v>28.425</v>
+        <v>28.425000000000001</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1177,16 +1194,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>199.028125</v>
+        <v>199.02812499999999</v>
       </c>
       <c r="D28">
-        <v>43.659375</v>
+        <v>43.659374999999997</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1194,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>100.75625</v>
+        <v>100.75624999999999</v>
       </c>
       <c r="D29">
-        <v>28.528125</v>
+        <v>28.528124999999999</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1214,13 +1231,13 @@
         <v>107.90625</v>
       </c>
       <c r="D30">
-        <v>25.290625</v>
+        <v>25.290624999999999</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1228,16 +1245,16 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>168.33125</v>
+        <v>168.33125000000001</v>
       </c>
       <c r="D31">
-        <v>39.56875</v>
+        <v>39.568750000000001</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1248,13 +1265,13 @@
         <v>100.98125</v>
       </c>
       <c r="D32">
-        <v>27.996875</v>
+        <v>27.996874999999999</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1262,16 +1279,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>117.775</v>
+        <v>117.77500000000001</v>
       </c>
       <c r="D33">
-        <v>29.00625</v>
+        <v>29.006250000000001</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1279,16 +1296,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>172.81875</v>
+        <v>172.81874999999999</v>
       </c>
       <c r="D34">
-        <v>41.528125</v>
+        <v>41.528125000000003</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1296,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>84.56562500000001</v>
+        <v>84.565625000000011</v>
       </c>
       <c r="D35">
-        <v>26.76875</v>
+        <v>26.768750000000001</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1313,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>188.371875</v>
+        <v>188.37187499999999</v>
       </c>
       <c r="D36">
         <v>30.21875</v>
@@ -1322,7 +1339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1330,16 +1347,16 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>186.371875</v>
+        <v>186.37187499999999</v>
       </c>
       <c r="D37">
-        <v>42.059375</v>
+        <v>42.059375000000003</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1347,16 +1364,16 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>142.54375</v>
+        <v>142.54374999999999</v>
       </c>
       <c r="D38">
-        <v>29.6125</v>
+        <v>29.612500000000001</v>
       </c>
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1364,16 +1381,16 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>181.321875</v>
+        <v>181.32187500000001</v>
       </c>
       <c r="D39">
-        <v>33.08437499999999</v>
+        <v>33.084374999999987</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1381,16 +1398,16 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>203.584375</v>
+        <v>203.58437499999999</v>
       </c>
       <c r="D40">
-        <v>42.990625</v>
+        <v>42.990625000000001</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1398,16 +1415,16 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>201.971875</v>
+        <v>201.97187500000001</v>
       </c>
       <c r="D41">
-        <v>43.25624999999999</v>
+        <v>43.256249999999987</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1415,16 +1432,16 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>135.69375</v>
+        <v>135.69374999999999</v>
       </c>
       <c r="D42">
-        <v>30.428125</v>
+        <v>30.428125000000001</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1432,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>231.159375</v>
+        <v>231.15937500000001</v>
       </c>
       <c r="D43">
         <v>47.92499999999999</v>
@@ -1441,7 +1458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1452,13 +1469,13 @@
         <v>164.40625</v>
       </c>
       <c r="D44">
-        <v>38.996875</v>
+        <v>38.996875000000003</v>
       </c>
       <c r="E44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1469,13 +1486,13 @@
         <v>107.3875</v>
       </c>
       <c r="D45">
-        <v>27.196875</v>
+        <v>27.196874999999999</v>
       </c>
       <c r="E45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1483,16 +1500,16 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>252.753125</v>
+        <v>252.75312500000001</v>
       </c>
       <c r="D46">
-        <v>50.334375</v>
+        <v>50.334375000000001</v>
       </c>
       <c r="E46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1503,13 +1520,13 @@
         <v>311.5968749999999</v>
       </c>
       <c r="D47">
-        <v>43.99062499999999</v>
+        <v>43.990624999999987</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1517,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>153.81875</v>
+        <v>153.81874999999999</v>
       </c>
       <c r="D48">
         <v>30.15625</v>
@@ -1526,7 +1543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1534,16 +1551,16 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>366.6718749999999</v>
+        <v>366.67187499999989</v>
       </c>
       <c r="D49">
-        <v>56.60312500000001</v>
+        <v>56.603125000000013</v>
       </c>
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1551,16 +1568,16 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>311.9624999999999</v>
+        <v>311.96249999999992</v>
       </c>
       <c r="D50">
-        <v>38.81250000000001</v>
+        <v>38.812500000000007</v>
       </c>
       <c r="E50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1568,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>142.309375</v>
+        <v>142.30937499999999</v>
       </c>
       <c r="D51">
         <v>29.99687500000001</v>
@@ -1577,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1585,16 +1602,16 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>427.93125</v>
+        <v>427.93124999999998</v>
       </c>
       <c r="D52">
-        <v>57.67187500000001</v>
+        <v>57.671875000000007</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1605,13 +1622,13 @@
         <v>367.3562500000001</v>
       </c>
       <c r="D53">
-        <v>42.64375000000001</v>
+        <v>42.643750000000011</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1622,13 +1639,13 @@
         <v>97.61562499999998</v>
       </c>
       <c r="D54">
-        <v>26.725</v>
+        <v>26.725000000000001</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1636,16 +1653,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>339.2625</v>
+        <v>339.26249999999999</v>
       </c>
       <c r="D55">
-        <v>55.88125000000002</v>
+        <v>55.881250000000023</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1662,7 +1679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1673,13 +1690,13 @@
         <v>112.171875</v>
       </c>
       <c r="D57">
-        <v>25.615625</v>
+        <v>25.615625000000001</v>
       </c>
       <c r="E57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1687,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>486.803125</v>
+        <v>486.80312500000002</v>
       </c>
       <c r="D58">
         <v>69.421875</v>
@@ -1696,7 +1713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1704,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>312.7562500000001</v>
+        <v>312.75625000000008</v>
       </c>
       <c r="D59">
-        <v>47.346875</v>
+        <v>47.346874999999997</v>
       </c>
       <c r="E59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1724,13 +1741,13 @@
         <v>179.55</v>
       </c>
       <c r="D60">
-        <v>36.43124999999999</v>
+        <v>36.431249999999991</v>
       </c>
       <c r="E60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1738,16 +1755,16 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>410.815625</v>
+        <v>410.81562500000001</v>
       </c>
       <c r="D61">
-        <v>66.44062499999998</v>
+        <v>66.440624999999983</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1755,16 +1772,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>232.45625</v>
+        <v>232.45625000000001</v>
       </c>
       <c r="D62">
-        <v>49.05312500000002</v>
+        <v>49.053125000000023</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1772,16 +1789,16 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>147.665625</v>
+        <v>147.66562500000001</v>
       </c>
       <c r="D63">
-        <v>31.946875</v>
+        <v>31.946874999999999</v>
       </c>
       <c r="E63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1789,16 +1806,16 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>565.090625</v>
+        <v>565.09062500000005</v>
       </c>
       <c r="D64">
-        <v>66.16562500000001</v>
+        <v>66.165625000000006</v>
       </c>
       <c r="E64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1809,13 +1826,13 @@
         <v>303.578125</v>
       </c>
       <c r="D65">
-        <v>56.98437499999999</v>
+        <v>56.984374999999993</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1826,13 +1843,13 @@
         <v>153.15</v>
       </c>
       <c r="D66">
-        <v>29.48125</v>
+        <v>29.481249999999999</v>
       </c>
       <c r="E66" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1840,16 +1857,16 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>527.946875</v>
+        <v>527.94687499999998</v>
       </c>
       <c r="D67">
-        <v>63.14999999999999</v>
+        <v>63.149999999999991</v>
       </c>
       <c r="E67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1857,16 +1874,16 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>271.39375</v>
+        <v>271.39375000000001</v>
       </c>
       <c r="D68">
-        <v>49.70312499999999</v>
+        <v>49.703124999999993</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1877,13 +1894,13 @@
         <v>148.71875</v>
       </c>
       <c r="D69">
-        <v>29.94374999999999</v>
+        <v>29.943749999999991</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1891,16 +1908,16 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>495.8999999999999</v>
+        <v>495.89999999999992</v>
       </c>
       <c r="D70">
-        <v>68.87499999999999</v>
+        <v>68.874999999999986</v>
       </c>
       <c r="E70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1908,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>408.3343750000001</v>
+        <v>408.33437500000008</v>
       </c>
       <c r="D71">
-        <v>53.04375000000002</v>
+        <v>53.043750000000017</v>
       </c>
       <c r="E71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1925,16 +1942,16 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>155.646875</v>
+        <v>155.64687499999999</v>
       </c>
       <c r="D72">
-        <v>32.896875</v>
+        <v>32.896875000000001</v>
       </c>
       <c r="E72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1942,16 +1959,16 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>423.88125</v>
+        <v>423.88125000000002</v>
       </c>
       <c r="D73">
-        <v>68.20625</v>
+        <v>68.206249999999997</v>
       </c>
       <c r="E73" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1959,16 +1976,16 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>528.7781249999999</v>
+        <v>528.77812499999993</v>
       </c>
       <c r="D74">
-        <v>60.2625</v>
+        <v>60.262500000000003</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1976,16 +1993,16 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>157.0125</v>
+        <v>157.01249999999999</v>
       </c>
       <c r="D75">
-        <v>32.809375</v>
+        <v>32.809375000000003</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1993,16 +2010,16 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>491.084375</v>
+        <v>491.08437500000002</v>
       </c>
       <c r="D76">
-        <v>68.23750000000001</v>
+        <v>68.237500000000011</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2010,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>516.0312500000001</v>
+        <v>516.03125000000011</v>
       </c>
       <c r="D77">
         <v>61.55</v>
@@ -2019,7 +2036,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2027,16 +2044,16 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>182.19375</v>
+        <v>182.19374999999999</v>
       </c>
       <c r="D78">
-        <v>37.778125</v>
+        <v>37.778125000000003</v>
       </c>
       <c r="E78" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2044,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>521.365625</v>
+        <v>521.36562500000002</v>
       </c>
       <c r="D79">
         <v>72.90000000000002</v>
@@ -2053,7 +2070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2061,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>352.91875</v>
+        <v>352.91874999999999</v>
       </c>
       <c r="D80">
-        <v>53.74375000000001</v>
+        <v>53.743750000000013</v>
       </c>
       <c r="E80" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2078,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>85.715625</v>
+        <v>85.715625000000003</v>
       </c>
       <c r="D81">
         <v>25.26874999999999</v>
@@ -2087,7 +2104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2095,16 +2112,16 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>496.7031250000001</v>
+        <v>496.70312500000011</v>
       </c>
       <c r="D82">
-        <v>67.29062500000001</v>
+        <v>67.290625000000006</v>
       </c>
       <c r="E82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2112,16 +2129,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>270.4218750000001</v>
+        <v>270.42187500000011</v>
       </c>
       <c r="D83">
-        <v>44.946875</v>
+        <v>44.946874999999999</v>
       </c>
       <c r="E83" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2129,16 +2146,16 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>117.30625</v>
+        <v>117.30625000000001</v>
       </c>
       <c r="D84">
-        <v>27.646875</v>
+        <v>27.646875000000001</v>
       </c>
       <c r="E84" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2146,16 +2163,16 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>706.9062499999999</v>
+        <v>706.90624999999989</v>
       </c>
       <c r="D85">
-        <v>81.34687500000003</v>
+        <v>81.346875000000026</v>
       </c>
       <c r="E85" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2163,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>534.8343749999999</v>
+        <v>534.83437499999991</v>
       </c>
       <c r="D86">
         <v>49.58124999999999</v>
@@ -2172,7 +2189,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2189,7 +2206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2200,13 +2217,13 @@
         <v>595.4375</v>
       </c>
       <c r="D88">
-        <v>80.73125000000002</v>
+        <v>80.731250000000017</v>
       </c>
       <c r="E88" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2214,16 +2231,16 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>613.49375</v>
+        <v>613.49374999999998</v>
       </c>
       <c r="D89">
-        <v>59.41562499999999</v>
+        <v>59.415624999999991</v>
       </c>
       <c r="E89" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2231,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>157.396875</v>
+        <v>157.39687499999999</v>
       </c>
       <c r="D90">
         <v>32.46875</v>
@@ -2240,7 +2257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2248,16 +2265,16 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>425.9968749999999</v>
+        <v>425.99687499999987</v>
       </c>
       <c r="D91">
-        <v>66.36562500000001</v>
+        <v>66.365625000000009</v>
       </c>
       <c r="E91" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2265,16 +2282,16 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>402.18125</v>
+        <v>402.18124999999998</v>
       </c>
       <c r="D92">
-        <v>53.42500000000001</v>
+        <v>53.425000000000011</v>
       </c>
       <c r="E92" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2282,16 +2299,16 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>158.675</v>
+        <v>158.67500000000001</v>
       </c>
       <c r="D93">
-        <v>29.715625</v>
+        <v>29.715624999999999</v>
       </c>
       <c r="E93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2299,16 +2316,16 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>627.303125</v>
+        <v>627.30312500000002</v>
       </c>
       <c r="D94">
-        <v>76.37187500000002</v>
+        <v>76.371875000000017</v>
       </c>
       <c r="E94" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2316,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>324.8124999999999</v>
+        <v>324.81249999999989</v>
       </c>
       <c r="D95">
         <v>48.71875</v>
@@ -2325,7 +2342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2333,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="D96">
         <v>30.34375</v>
@@ -2342,7 +2359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2350,7 +2367,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>598.9125</v>
+        <v>598.91250000000002</v>
       </c>
       <c r="D97">
         <v>75.88124999999998</v>
@@ -2359,7 +2376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2367,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>425.7874999999999</v>
+        <v>425.78749999999991</v>
       </c>
       <c r="D98">
-        <v>57.834375</v>
+        <v>57.834375000000001</v>
       </c>
       <c r="E98" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2401,16 +2418,16 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>595.9187499999999</v>
+        <v>595.91874999999993</v>
       </c>
       <c r="D100">
-        <v>65.06250000000001</v>
+        <v>65.062500000000014</v>
       </c>
       <c r="E100" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2418,16 +2435,16 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>494.775</v>
+        <v>494.77499999999998</v>
       </c>
       <c r="D101">
-        <v>65.49374999999998</v>
+        <v>65.493749999999977</v>
       </c>
       <c r="E101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2435,16 +2452,16 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>180.2562500000001</v>
+        <v>180.25625000000011</v>
       </c>
       <c r="D102">
-        <v>34.478125</v>
+        <v>34.478124999999999</v>
       </c>
       <c r="E102" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2452,16 +2469,16 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>646.5500000000001</v>
+        <v>646.55000000000007</v>
       </c>
       <c r="D103">
-        <v>75.50624999999999</v>
+        <v>75.506249999999994</v>
       </c>
       <c r="E103" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2469,16 +2486,16 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>467.771875</v>
+        <v>467.77187500000002</v>
       </c>
       <c r="D104">
-        <v>63.71250000000001</v>
+        <v>63.712500000000013</v>
       </c>
       <c r="E104" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2495,7 +2512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2503,16 +2520,16 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>685.95625</v>
+        <v>685.95624999999995</v>
       </c>
       <c r="D106">
-        <v>84.10000000000001</v>
+        <v>84.100000000000009</v>
       </c>
       <c r="E106" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2520,16 +2537,16 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>631.4031250000002</v>
+        <v>631.40312500000016</v>
       </c>
       <c r="D107">
-        <v>74.88750000000002</v>
+        <v>74.887500000000017</v>
       </c>
       <c r="E107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2537,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>83.54375000000003</v>
+        <v>83.543750000000031</v>
       </c>
       <c r="D108">
         <v>21.515625</v>
@@ -2546,7 +2563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2554,16 +2571,16 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>764.4312499999997</v>
+        <v>764.43124999999975</v>
       </c>
       <c r="D109">
-        <v>83.93124999999999</v>
+        <v>83.931249999999991</v>
       </c>
       <c r="E109" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2571,16 +2588,16 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>759.33125</v>
+        <v>759.33124999999995</v>
       </c>
       <c r="D110">
-        <v>81.52187500000001</v>
+        <v>81.521875000000009</v>
       </c>
       <c r="E110" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2588,16 +2605,16 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>165.746875</v>
+        <v>165.74687499999999</v>
       </c>
       <c r="D111">
-        <v>31.459375</v>
+        <v>31.459375000000001</v>
       </c>
       <c r="E111" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2605,16 +2622,16 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>596.4312500000001</v>
+        <v>596.43125000000009</v>
       </c>
       <c r="D112">
-        <v>75.68125000000001</v>
+        <v>75.681250000000006</v>
       </c>
       <c r="E112" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2622,16 +2639,16 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>863.1437500000002</v>
+        <v>863.14375000000018</v>
       </c>
       <c r="D113">
-        <v>94.68124999999999</v>
+        <v>94.681249999999991</v>
       </c>
       <c r="E113" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2639,16 +2656,16 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>174.26875</v>
+        <v>174.26875000000001</v>
       </c>
       <c r="D114">
-        <v>31.83125</v>
+        <v>31.831250000000001</v>
       </c>
       <c r="E114" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2656,16 +2673,16 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>792.840625</v>
+        <v>792.84062500000005</v>
       </c>
       <c r="D115">
-        <v>85.48437499999999</v>
+        <v>85.484374999999986</v>
       </c>
       <c r="E115" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2673,16 +2690,16 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>748.00625</v>
+        <v>748.00625000000002</v>
       </c>
       <c r="D116">
-        <v>89.90937499999998</v>
+        <v>89.909374999999983</v>
       </c>
       <c r="E116" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2690,16 +2707,16 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>145.521875</v>
+        <v>145.52187499999999</v>
       </c>
       <c r="D117">
-        <v>28.20937499999999</v>
+        <v>28.209374999999991</v>
       </c>
       <c r="E117" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2707,16 +2724,16 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>888.728125</v>
+        <v>888.72812499999998</v>
       </c>
       <c r="D118">
-        <v>78.778125</v>
+        <v>78.778125000000003</v>
       </c>
       <c r="E118" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>535.1968750000001</v>
+        <v>535.19687500000009</v>
       </c>
       <c r="D119">
         <v>81.53749999999998</v>
@@ -2733,7 +2750,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2741,16 +2758,16 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>141.809375</v>
+        <v>141.80937499999999</v>
       </c>
       <c r="D120">
-        <v>28.934375</v>
+        <v>28.934374999999999</v>
       </c>
       <c r="E120" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2758,16 +2775,16 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>883.8062500000001</v>
+        <v>883.80625000000009</v>
       </c>
       <c r="D121">
-        <v>79.99062499999999</v>
+        <v>79.990624999999994</v>
       </c>
       <c r="E121" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2775,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>543.6625</v>
+        <v>543.66250000000002</v>
       </c>
       <c r="D122">
         <v>87.28125</v>
@@ -2784,7 +2801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2795,13 +2812,13 @@
         <v>124.91875</v>
       </c>
       <c r="D123">
-        <v>27.871875</v>
+        <v>27.871874999999999</v>
       </c>
       <c r="E123" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2809,16 +2826,16 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>796.9812499999998</v>
+        <v>796.98124999999982</v>
       </c>
       <c r="D124">
-        <v>75.61562500000001</v>
+        <v>75.615625000000009</v>
       </c>
       <c r="E124" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2826,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>738.0062499999999</v>
+        <v>738.00624999999991</v>
       </c>
       <c r="D125">
-        <v>88.16250000000001</v>
+        <v>88.162500000000009</v>
       </c>
       <c r="E125" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2843,16 +2860,16 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>104.38125</v>
+        <v>104.38124999999999</v>
       </c>
       <c r="D126">
-        <v>26.36875</v>
+        <v>26.368749999999999</v>
       </c>
       <c r="E126" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2860,16 +2877,16 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>926.8625</v>
+        <v>926.86249999999995</v>
       </c>
       <c r="D127">
-        <v>87.61250000000001</v>
+        <v>87.612500000000011</v>
       </c>
       <c r="E127" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2877,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>864.2000000000003</v>
+        <v>864.20000000000027</v>
       </c>
       <c r="D128">
-        <v>93.73125</v>
+        <v>93.731250000000003</v>
       </c>
       <c r="E128" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2894,16 +2911,16 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>137.6125</v>
+        <v>137.61250000000001</v>
       </c>
       <c r="D129">
-        <v>29.83125</v>
+        <v>29.831250000000001</v>
       </c>
       <c r="E129" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2911,16 +2928,16 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>852.0343750000001</v>
+        <v>852.03437500000007</v>
       </c>
       <c r="D130">
-        <v>90.77187500000001</v>
+        <v>90.771875000000009</v>
       </c>
       <c r="E130" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>749.3156250000001</v>
+        <v>749.31562500000007</v>
       </c>
       <c r="D131">
         <v>90.140625</v>
@@ -2937,7 +2954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2945,16 +2962,16 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>98.18437499999997</v>
+        <v>98.184374999999974</v>
       </c>
       <c r="D132">
-        <v>26.440625</v>
+        <v>26.440625000000001</v>
       </c>
       <c r="E132" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2962,16 +2979,16 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>887.0781249999999</v>
+        <v>887.07812499999989</v>
       </c>
       <c r="D133">
-        <v>94.61562500000001</v>
+        <v>94.615625000000009</v>
       </c>
       <c r="E133" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2979,16 +2996,16 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>595.1750000000002</v>
+        <v>595.17500000000018</v>
       </c>
       <c r="D134">
-        <v>86.91875000000003</v>
+        <v>86.918750000000031</v>
       </c>
       <c r="E134" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2996,16 +3013,16 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>98.04062500000001</v>
+        <v>98.040625000000006</v>
       </c>
       <c r="D135">
-        <v>23.81875</v>
+        <v>23.818750000000001</v>
       </c>
       <c r="E135" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3013,16 +3030,16 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>841.915625</v>
+        <v>841.91562499999998</v>
       </c>
       <c r="D136">
-        <v>94.434375</v>
+        <v>94.434375000000003</v>
       </c>
       <c r="E136" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3030,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>629.4812500000002</v>
+        <v>629.48125000000016</v>
       </c>
       <c r="D137">
-        <v>87.80625000000001</v>
+        <v>87.806250000000006</v>
       </c>
       <c r="E137" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3047,16 +3064,16 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>110.928125</v>
+        <v>110.92812499999999</v>
       </c>
       <c r="D138">
-        <v>25.91562500000001</v>
+        <v>25.915625000000009</v>
       </c>
       <c r="E138" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3064,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>945.8968749999999</v>
+        <v>945.89687499999991</v>
       </c>
       <c r="D139">
         <v>108.8625</v>
@@ -3073,7 +3090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3081,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>860.0375</v>
+        <v>860.03750000000002</v>
       </c>
       <c r="D140">
-        <v>94.67499999999998</v>
+        <v>94.674999999999983</v>
       </c>
       <c r="E140" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3098,16 +3115,16 @@
         <v>2</v>
       </c>
       <c r="C141">
-        <v>128.86875</v>
+        <v>128.86875000000001</v>
       </c>
       <c r="D141">
-        <v>30.40624999999999</v>
+        <v>30.406249999999989</v>
       </c>
       <c r="E141" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3115,16 +3132,16 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>779.1125000000001</v>
+        <v>779.11250000000007</v>
       </c>
       <c r="D142">
-        <v>100.975</v>
+        <v>100.97499999999999</v>
       </c>
       <c r="E142" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3141,7 +3158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3152,13 +3169,13 @@
         <v>191.0187499999999</v>
       </c>
       <c r="D144">
-        <v>31.165625</v>
+        <v>31.165624999999999</v>
       </c>
       <c r="E144" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3166,16 +3183,16 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>730.471875</v>
+        <v>730.47187499999995</v>
       </c>
       <c r="D145">
-        <v>93.04062500000001</v>
+        <v>93.040625000000006</v>
       </c>
       <c r="E145" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>1187.646875</v>
+        <v>1187.6468749999999</v>
       </c>
       <c r="D146">
         <v>112.878125</v>
@@ -3192,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3200,16 +3217,16 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>145.615625</v>
+        <v>145.61562499999999</v>
       </c>
       <c r="D147">
-        <v>27.48125</v>
+        <v>27.481249999999999</v>
       </c>
       <c r="E147" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3217,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>768.9343750000002</v>
+        <v>768.93437500000016</v>
       </c>
       <c r="D148">
         <v>101.8875</v>
@@ -3226,7 +3243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3243,7 +3260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3251,16 +3268,16 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>135.6625</v>
+        <v>135.66249999999999</v>
       </c>
       <c r="D150">
-        <v>32.20937499999999</v>
+        <v>32.209374999999987</v>
       </c>
       <c r="E150" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3277,7 +3294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3288,13 +3305,13 @@
         <v>1486.4375</v>
       </c>
       <c r="D152">
-        <v>135.79375</v>
+        <v>135.79374999999999</v>
       </c>
       <c r="E152" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3305,13 +3322,13 @@
         <v>155.171875</v>
       </c>
       <c r="D153">
-        <v>33.03749999999999</v>
+        <v>33.037499999999987</v>
       </c>
       <c r="E153" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3319,16 +3336,16 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>963.2531250000001</v>
+        <v>963.25312500000007</v>
       </c>
       <c r="D154">
-        <v>107.7125</v>
+        <v>107.71250000000001</v>
       </c>
       <c r="E154" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3339,13 +3356,13 @@
         <v>1097.9375</v>
       </c>
       <c r="D155">
-        <v>110.490625</v>
+        <v>110.49062499999999</v>
       </c>
       <c r="E155" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3356,13 +3373,13 @@
         <v>117.21875</v>
       </c>
       <c r="D156">
-        <v>32.725</v>
+        <v>32.725000000000001</v>
       </c>
       <c r="E156" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3404,16 +3421,16 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>128.31875</v>
+        <v>128.31874999999999</v>
       </c>
       <c r="D159">
-        <v>31.63437499999999</v>
+        <v>31.634374999999991</v>
       </c>
       <c r="E159" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>1236.728125</v>
+        <v>1236.7281250000001</v>
       </c>
       <c r="D160">
         <v>122.35625</v>
@@ -3430,7 +3447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3441,13 +3458,13 @@
         <v>1232.54375</v>
       </c>
       <c r="D161">
-        <v>114.2125</v>
+        <v>114.21250000000001</v>
       </c>
       <c r="E161" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3472,7 +3489,7 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>914.8781249999998</v>
+        <v>914.87812499999984</v>
       </c>
       <c r="D163">
         <v>106.65625</v>
@@ -3481,7 +3498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3489,16 +3506,16 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>1479.603125</v>
+        <v>1479.6031250000001</v>
       </c>
       <c r="D164">
-        <v>128.925</v>
+        <v>128.92500000000001</v>
       </c>
       <c r="E164" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="C165">
-        <v>101.759375</v>
+        <v>101.75937500000001</v>
       </c>
       <c r="D165">
         <v>28.03125</v>
@@ -3515,7 +3532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3526,13 +3543,13 @@
         <v>1401.6125</v>
       </c>
       <c r="D166">
-        <v>124.040625</v>
+        <v>124.04062500000001</v>
       </c>
       <c r="E166" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3543,13 +3560,13 @@
         <v>1623.903125</v>
       </c>
       <c r="D167">
-        <v>140.934375</v>
+        <v>140.93437499999999</v>
       </c>
       <c r="E167" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3566,7 +3583,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3577,13 +3594,13 @@
         <v>1536.128125</v>
       </c>
       <c r="D169">
-        <v>137.725</v>
+        <v>137.72499999999999</v>
       </c>
       <c r="E169" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3594,13 +3611,13 @@
         <v>1939.596875</v>
       </c>
       <c r="D170">
-        <v>151.353125</v>
+        <v>151.35312500000001</v>
       </c>
       <c r="E170" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3608,16 +3625,16 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>90.01875</v>
+        <v>90.018749999999997</v>
       </c>
       <c r="D171">
-        <v>27.840625</v>
+        <v>27.840624999999999</v>
       </c>
       <c r="E171" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3625,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>1168.009375</v>
+        <v>1168.0093750000001</v>
       </c>
       <c r="D172">
         <v>127.003125</v>
@@ -3634,7 +3651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3645,13 +3662,13 @@
         <v>2005.071874999999</v>
       </c>
       <c r="D173">
-        <v>159.2375</v>
+        <v>159.23750000000001</v>
       </c>
       <c r="E173" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3659,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="C174">
-        <v>153.2343749999999</v>
+        <v>153.23437499999989</v>
       </c>
       <c r="D174">
         <v>34.33124999999999</v>
@@ -3668,7 +3685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3685,7 +3702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3693,16 +3710,16 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1873.884375</v>
+        <v>1873.8843750000001</v>
       </c>
       <c r="D176">
-        <v>144.675</v>
+        <v>144.67500000000001</v>
       </c>
       <c r="E176" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3710,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="C177">
-        <v>117.225</v>
+        <v>117.22499999999999</v>
       </c>
       <c r="D177">
         <v>24.515625</v>
@@ -3719,7 +3736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3730,13 +3747,13 @@
         <v>1169.51875</v>
       </c>
       <c r="D178">
-        <v>133.028125</v>
+        <v>133.02812499999999</v>
       </c>
       <c r="E178" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3747,13 +3764,13 @@
         <v>1695.421875</v>
       </c>
       <c r="D179">
-        <v>157.05</v>
+        <v>157.05000000000001</v>
       </c>
       <c r="E179" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3761,16 +3778,16 @@
         <v>2</v>
       </c>
       <c r="C180">
-        <v>106.771875</v>
+        <v>106.77187499999999</v>
       </c>
       <c r="D180">
-        <v>27.415625</v>
+        <v>27.415624999999999</v>
       </c>
       <c r="E180" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3781,13 +3798,13 @@
         <v>1400.23125</v>
       </c>
       <c r="D181">
-        <v>155.121875</v>
+        <v>155.12187499999999</v>
       </c>
       <c r="E181" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3795,16 +3812,16 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>1632.0375</v>
+        <v>1632.0374999999999</v>
       </c>
       <c r="D182">
-        <v>144.603125</v>
+        <v>144.60312500000001</v>
       </c>
       <c r="E182" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3821,7 +3838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3829,16 +3846,16 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>1310.55625</v>
+        <v>1310.5562500000001</v>
       </c>
       <c r="D184">
-        <v>161.55</v>
+        <v>161.55000000000001</v>
       </c>
       <c r="E184" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3846,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>2074.221875</v>
+        <v>2074.2218750000002</v>
       </c>
       <c r="D185">
-        <v>159.646875</v>
+        <v>159.64687499999999</v>
       </c>
       <c r="E185" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3863,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>219.915625</v>
+        <v>219.91562500000001</v>
       </c>
       <c r="D186">
         <v>39.375</v>
@@ -3872,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3880,16 +3897,16 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>1236.525</v>
+        <v>1236.5250000000001</v>
       </c>
       <c r="D187">
-        <v>154.275</v>
+        <v>154.27500000000001</v>
       </c>
       <c r="E187" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>2077.315625000001</v>
+        <v>2077.3156250000011</v>
       </c>
       <c r="D188">
         <v>168.78125</v>
@@ -3906,7 +3923,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3914,16 +3931,16 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>203.30625</v>
+        <v>203.30625000000001</v>
       </c>
       <c r="D189">
-        <v>39.19375</v>
+        <v>39.193750000000001</v>
       </c>
       <c r="E189" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3931,16 +3948,16 @@
         <v>3</v>
       </c>
       <c r="C190">
-        <v>1111.990625</v>
+        <v>1111.9906249999999</v>
       </c>
       <c r="D190">
-        <v>145.75625</v>
+        <v>145.75624999999999</v>
       </c>
       <c r="E190" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3951,13 +3968,13 @@
         <v>1955.15625</v>
       </c>
       <c r="D191">
-        <v>147.025</v>
+        <v>147.02500000000001</v>
       </c>
       <c r="E191" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3965,16 +3982,16 @@
         <v>2</v>
       </c>
       <c r="C192">
-        <v>188.665625</v>
+        <v>188.66562500000001</v>
       </c>
       <c r="D192">
-        <v>42.73125</v>
+        <v>42.731250000000003</v>
       </c>
       <c r="E192" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3982,16 +3999,16 @@
         <v>3</v>
       </c>
       <c r="C193">
-        <v>934.534375</v>
+        <v>934.53437499999995</v>
       </c>
       <c r="D193">
-        <v>135.771875</v>
+        <v>135.77187499999999</v>
       </c>
       <c r="E193" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4002,13 +4019,13 @@
         <v>2038.1875</v>
       </c>
       <c r="D194">
-        <v>149.31875</v>
+        <v>149.31874999999999</v>
       </c>
       <c r="E194" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4019,13 +4036,13 @@
         <v>155.7156249999999</v>
       </c>
       <c r="D195">
-        <v>37.221875</v>
+        <v>37.221874999999997</v>
       </c>
       <c r="E195" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4033,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>888.1750000000002</v>
+        <v>888.17500000000018</v>
       </c>
       <c r="D196">
         <v>126.421875</v>
@@ -4042,7 +4059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4053,13 +4070,13 @@
         <v>1837.153125000001</v>
       </c>
       <c r="D197">
-        <v>132.178125</v>
+        <v>132.17812499999999</v>
       </c>
       <c r="E197" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4070,13 +4087,13 @@
         <v>160.4375</v>
       </c>
       <c r="D198">
-        <v>35.39375</v>
+        <v>35.393749999999997</v>
       </c>
       <c r="E198" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4084,12 +4101,2784 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>894.75625</v>
+        <v>894.75625000000002</v>
       </c>
       <c r="D199">
         <v>123.35625</v>
       </c>
       <c r="E199" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>134.45625000000001</v>
+      </c>
+      <c r="D200">
+        <v>33.721874999999997</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>182.1125000000001</v>
+      </c>
+      <c r="D201">
+        <v>39.075000000000003</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>258.37812500000001</v>
+      </c>
+      <c r="D202">
+        <v>50.687499999999993</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>80.790624999999977</v>
+      </c>
+      <c r="D203">
+        <v>22.737500000000001</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>68.893749999999997</v>
+      </c>
+      <c r="D204">
+        <v>18.3125</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>135.71875</v>
+      </c>
+      <c r="D205">
+        <v>31.40625</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>122.09375</v>
+      </c>
+      <c r="D206">
+        <v>30.465624999999999</v>
+      </c>
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>106.565625</v>
+      </c>
+      <c r="D207">
+        <v>25.921875</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>159.90625</v>
+      </c>
+      <c r="D208">
+        <v>36.421875000000007</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>100.13437500000001</v>
+      </c>
+      <c r="D209">
+        <v>25.737500000000001</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>114.06874999999999</v>
+      </c>
+      <c r="D210">
+        <v>27.278124999999999</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>176.30937499999999</v>
+      </c>
+      <c r="D211">
+        <v>38.478124999999999</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>86.590625000000017</v>
+      </c>
+      <c r="D212">
+        <v>23.303124999999991</v>
+      </c>
+      <c r="E212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>88.709375000000023</v>
+      </c>
+      <c r="D213">
+        <v>21.746874999999999</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>222.21562499999999</v>
+      </c>
+      <c r="D214">
+        <v>47.021875000000001</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>162.90624999999989</v>
+      </c>
+      <c r="D215">
+        <v>36.434375000000003</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>106.2</v>
+      </c>
+      <c r="D216">
+        <v>26.690625000000001</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>200.52812499999999</v>
+      </c>
+      <c r="D217">
+        <v>45.903124999999989</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>141.46562499999999</v>
+      </c>
+      <c r="D218">
+        <v>31.534375000000001</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>120.33750000000001</v>
+      </c>
+      <c r="D219">
+        <v>28.521875000000001</v>
+      </c>
+      <c r="E219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>205.52812499999999</v>
+      </c>
+      <c r="D220">
+        <v>42.862499999999997</v>
+      </c>
+      <c r="E220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>98.165625000000006</v>
+      </c>
+      <c r="D221">
+        <v>27.115625000000001</v>
+      </c>
+      <c r="E221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>102.38437500000001</v>
+      </c>
+      <c r="D222">
+        <v>25.871874999999999</v>
+      </c>
+      <c r="E222" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>201.90625</v>
+      </c>
+      <c r="D223">
+        <v>41.725000000000001</v>
+      </c>
+      <c r="E223" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>160.64687499999999</v>
+      </c>
+      <c r="D224">
+        <v>38.115625000000001</v>
+      </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>112.29375</v>
+      </c>
+      <c r="D225">
+        <v>28.425000000000001</v>
+      </c>
+      <c r="E225" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>199.02812499999999</v>
+      </c>
+      <c r="D226">
+        <v>43.659374999999997</v>
+      </c>
+      <c r="E226" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>100.75624999999999</v>
+      </c>
+      <c r="D227">
+        <v>28.528124999999999</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>107.90625</v>
+      </c>
+      <c r="D228">
+        <v>25.290624999999999</v>
+      </c>
+      <c r="E228" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>168.33125000000001</v>
+      </c>
+      <c r="D229">
+        <v>39.568750000000001</v>
+      </c>
+      <c r="E229" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>100.98125</v>
+      </c>
+      <c r="D230">
+        <v>27.996874999999999</v>
+      </c>
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>117.77500000000001</v>
+      </c>
+      <c r="D231">
+        <v>29.006250000000001</v>
+      </c>
+      <c r="E231" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>172.81874999999999</v>
+      </c>
+      <c r="D232">
+        <v>41.528125000000003</v>
+      </c>
+      <c r="E232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>84.565625000000011</v>
+      </c>
+      <c r="D233">
+        <v>26.768750000000001</v>
+      </c>
+      <c r="E233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>188.37187499999999</v>
+      </c>
+      <c r="D234">
+        <v>30.21875</v>
+      </c>
+      <c r="E234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>186.37187499999999</v>
+      </c>
+      <c r="D235">
+        <v>42.059375000000003</v>
+      </c>
+      <c r="E235" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>142.54374999999999</v>
+      </c>
+      <c r="D236">
+        <v>29.612500000000001</v>
+      </c>
+      <c r="E236" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>181.32187500000001</v>
+      </c>
+      <c r="D237">
+        <v>33.084374999999987</v>
+      </c>
+      <c r="E237" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>203.58437499999999</v>
+      </c>
+      <c r="D238">
+        <v>42.990625000000001</v>
+      </c>
+      <c r="E238" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>201.97187500000001</v>
+      </c>
+      <c r="D239">
+        <v>43.256249999999987</v>
+      </c>
+      <c r="E239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>135.69374999999999</v>
+      </c>
+      <c r="D240">
+        <v>30.428125000000001</v>
+      </c>
+      <c r="E240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>231.15937500000001</v>
+      </c>
+      <c r="D241">
+        <v>47.92499999999999</v>
+      </c>
+      <c r="E241" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>164.40625</v>
+      </c>
+      <c r="D242">
+        <v>38.996875000000003</v>
+      </c>
+      <c r="E242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>107.3875</v>
+      </c>
+      <c r="D243">
+        <v>27.196874999999999</v>
+      </c>
+      <c r="E243" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>252.75312500000001</v>
+      </c>
+      <c r="D244">
+        <v>50.334375000000001</v>
+      </c>
+      <c r="E244" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>311.5968749999999</v>
+      </c>
+      <c r="D245">
+        <v>43.990624999999987</v>
+      </c>
+      <c r="E245" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>153.81874999999999</v>
+      </c>
+      <c r="D246">
+        <v>30.15625</v>
+      </c>
+      <c r="E246" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>366.67187499999989</v>
+      </c>
+      <c r="D247">
+        <v>56.603125000000013</v>
+      </c>
+      <c r="E247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>311.96249999999992</v>
+      </c>
+      <c r="D248">
+        <v>38.812500000000007</v>
+      </c>
+      <c r="E248" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>142.30937499999999</v>
+      </c>
+      <c r="D249">
+        <v>29.99687500000001</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>427.93124999999998</v>
+      </c>
+      <c r="D250">
+        <v>57.671875000000007</v>
+      </c>
+      <c r="E250" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>367.3562500000001</v>
+      </c>
+      <c r="D251">
+        <v>42.643750000000011</v>
+      </c>
+      <c r="E251" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>97.61562499999998</v>
+      </c>
+      <c r="D252">
+        <v>26.725000000000001</v>
+      </c>
+      <c r="E252" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>339.26249999999999</v>
+      </c>
+      <c r="D253">
+        <v>55.881250000000023</v>
+      </c>
+      <c r="E253" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>291.9343750000001</v>
+      </c>
+      <c r="D254">
+        <v>38.578125</v>
+      </c>
+      <c r="E254" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>112.171875</v>
+      </c>
+      <c r="D255">
+        <v>25.615625000000001</v>
+      </c>
+      <c r="E255" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>486.80312500000002</v>
+      </c>
+      <c r="D256">
+        <v>69.421875</v>
+      </c>
+      <c r="E256" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>312.75625000000008</v>
+      </c>
+      <c r="D257">
+        <v>47.346874999999997</v>
+      </c>
+      <c r="E257" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>179.55</v>
+      </c>
+      <c r="D258">
+        <v>36.431249999999991</v>
+      </c>
+      <c r="E258" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>410.81562500000001</v>
+      </c>
+      <c r="D259">
+        <v>66.440624999999983</v>
+      </c>
+      <c r="E259" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>232.45625000000001</v>
+      </c>
+      <c r="D260">
+        <v>49.053125000000023</v>
+      </c>
+      <c r="E260" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>147.66562500000001</v>
+      </c>
+      <c r="D261">
+        <v>31.946874999999999</v>
+      </c>
+      <c r="E261" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>565.09062500000005</v>
+      </c>
+      <c r="D262">
+        <v>66.165625000000006</v>
+      </c>
+      <c r="E262" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>303.578125</v>
+      </c>
+      <c r="D263">
+        <v>56.984374999999993</v>
+      </c>
+      <c r="E263" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>153.15</v>
+      </c>
+      <c r="D264">
+        <v>29.481249999999999</v>
+      </c>
+      <c r="E264" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>527.94687499999998</v>
+      </c>
+      <c r="D265">
+        <v>63.149999999999991</v>
+      </c>
+      <c r="E265" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>271.39375000000001</v>
+      </c>
+      <c r="D266">
+        <v>49.703124999999993</v>
+      </c>
+      <c r="E266" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>148.71875</v>
+      </c>
+      <c r="D267">
+        <v>29.943749999999991</v>
+      </c>
+      <c r="E267" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>495.89999999999992</v>
+      </c>
+      <c r="D268">
+        <v>68.874999999999986</v>
+      </c>
+      <c r="E268" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>408.33437500000008</v>
+      </c>
+      <c r="D269">
+        <v>53.043750000000017</v>
+      </c>
+      <c r="E269" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>155.64687499999999</v>
+      </c>
+      <c r="D270">
+        <v>32.896875000000001</v>
+      </c>
+      <c r="E270" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>423.88125000000002</v>
+      </c>
+      <c r="D271">
+        <v>68.206249999999997</v>
+      </c>
+      <c r="E271" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>528.77812499999993</v>
+      </c>
+      <c r="D272">
+        <v>60.262500000000003</v>
+      </c>
+      <c r="E272" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>157.01249999999999</v>
+      </c>
+      <c r="D273">
+        <v>32.809375000000003</v>
+      </c>
+      <c r="E273" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>491.08437500000002</v>
+      </c>
+      <c r="D274">
+        <v>68.237500000000011</v>
+      </c>
+      <c r="E274" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>516.03125000000011</v>
+      </c>
+      <c r="D275">
+        <v>61.55</v>
+      </c>
+      <c r="E275" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>182.19374999999999</v>
+      </c>
+      <c r="D276">
+        <v>37.778125000000003</v>
+      </c>
+      <c r="E276" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>521.36562500000002</v>
+      </c>
+      <c r="D277">
+        <v>72.90000000000002</v>
+      </c>
+      <c r="E277" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>352.91874999999999</v>
+      </c>
+      <c r="D278">
+        <v>53.743750000000013</v>
+      </c>
+      <c r="E278" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>85.715625000000003</v>
+      </c>
+      <c r="D279">
+        <v>25.26874999999999</v>
+      </c>
+      <c r="E279" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>496.70312500000011</v>
+      </c>
+      <c r="D280">
+        <v>67.290625000000006</v>
+      </c>
+      <c r="E280" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>270.42187500000011</v>
+      </c>
+      <c r="D281">
+        <v>44.946874999999999</v>
+      </c>
+      <c r="E281" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>117.30625000000001</v>
+      </c>
+      <c r="D282">
+        <v>27.646875000000001</v>
+      </c>
+      <c r="E282" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>706.90624999999989</v>
+      </c>
+      <c r="D283">
+        <v>81.346875000000026</v>
+      </c>
+      <c r="E283" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>534.83437499999991</v>
+      </c>
+      <c r="D284">
+        <v>49.58124999999999</v>
+      </c>
+      <c r="E284" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>128.875</v>
+      </c>
+      <c r="D285">
+        <v>28.71875</v>
+      </c>
+      <c r="E285" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>595.4375</v>
+      </c>
+      <c r="D286">
+        <v>80.731250000000017</v>
+      </c>
+      <c r="E286" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>613.49374999999998</v>
+      </c>
+      <c r="D287">
+        <v>59.415624999999991</v>
+      </c>
+      <c r="E287" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>157.39687499999999</v>
+      </c>
+      <c r="D288">
+        <v>32.46875</v>
+      </c>
+      <c r="E288" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>425.99687499999987</v>
+      </c>
+      <c r="D289">
+        <v>66.365625000000009</v>
+      </c>
+      <c r="E289" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>402.18124999999998</v>
+      </c>
+      <c r="D290">
+        <v>53.425000000000011</v>
+      </c>
+      <c r="E290" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>158.67500000000001</v>
+      </c>
+      <c r="D291">
+        <v>29.715624999999999</v>
+      </c>
+      <c r="E291" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>627.30312500000002</v>
+      </c>
+      <c r="D292">
+        <v>76.371875000000017</v>
+      </c>
+      <c r="E292" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>324.81249999999989</v>
+      </c>
+      <c r="D293">
+        <v>48.71875</v>
+      </c>
+      <c r="E293" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="D294">
+        <v>30.34375</v>
+      </c>
+      <c r="E294" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>598.91250000000002</v>
+      </c>
+      <c r="D295">
+        <v>75.88124999999998</v>
+      </c>
+      <c r="E295" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>425.78749999999991</v>
+      </c>
+      <c r="D296">
+        <v>57.834375000000001</v>
+      </c>
+      <c r="E296" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>122.871875</v>
+      </c>
+      <c r="D297">
+        <v>29.1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>595.91874999999993</v>
+      </c>
+      <c r="D298">
+        <v>65.062500000000014</v>
+      </c>
+      <c r="E298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>494.77499999999998</v>
+      </c>
+      <c r="D299">
+        <v>65.493749999999977</v>
+      </c>
+      <c r="E299" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>180.25625000000011</v>
+      </c>
+      <c r="D300">
+        <v>34.478124999999999</v>
+      </c>
+      <c r="E300" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>646.55000000000007</v>
+      </c>
+      <c r="D301">
+        <v>75.506249999999994</v>
+      </c>
+      <c r="E301" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>467.77187500000002</v>
+      </c>
+      <c r="D302">
+        <v>63.712500000000013</v>
+      </c>
+      <c r="E302" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>105.83125</v>
+      </c>
+      <c r="D303">
+        <v>23.95</v>
+      </c>
+      <c r="E303" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>685.95624999999995</v>
+      </c>
+      <c r="D304">
+        <v>84.100000000000009</v>
+      </c>
+      <c r="E304" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>631.40312500000016</v>
+      </c>
+      <c r="D305">
+        <v>74.887500000000017</v>
+      </c>
+      <c r="E305" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>83.543750000000031</v>
+      </c>
+      <c r="D306">
+        <v>21.515625</v>
+      </c>
+      <c r="E306" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>764.43124999999975</v>
+      </c>
+      <c r="D307">
+        <v>83.931249999999991</v>
+      </c>
+      <c r="E307" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>759.33124999999995</v>
+      </c>
+      <c r="D308">
+        <v>81.521875000000009</v>
+      </c>
+      <c r="E308" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>165.74687499999999</v>
+      </c>
+      <c r="D309">
+        <v>31.459375000000001</v>
+      </c>
+      <c r="E309" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>596.43125000000009</v>
+      </c>
+      <c r="D310">
+        <v>75.681250000000006</v>
+      </c>
+      <c r="E310" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>863.14375000000018</v>
+      </c>
+      <c r="D311">
+        <v>94.681249999999991</v>
+      </c>
+      <c r="E311" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>174.26875000000001</v>
+      </c>
+      <c r="D312">
+        <v>31.831250000000001</v>
+      </c>
+      <c r="E312" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>792.84062500000005</v>
+      </c>
+      <c r="D313">
+        <v>85.484374999999986</v>
+      </c>
+      <c r="E313" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>748.00625000000002</v>
+      </c>
+      <c r="D314">
+        <v>89.909374999999983</v>
+      </c>
+      <c r="E314" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>145.52187499999999</v>
+      </c>
+      <c r="D315">
+        <v>28.209374999999991</v>
+      </c>
+      <c r="E315" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>888.72812499999998</v>
+      </c>
+      <c r="D316">
+        <v>78.778125000000003</v>
+      </c>
+      <c r="E316" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>535.19687500000009</v>
+      </c>
+      <c r="D317">
+        <v>81.53749999999998</v>
+      </c>
+      <c r="E317" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>141.80937499999999</v>
+      </c>
+      <c r="D318">
+        <v>28.934374999999999</v>
+      </c>
+      <c r="E318" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>883.80625000000009</v>
+      </c>
+      <c r="D319">
+        <v>79.990624999999994</v>
+      </c>
+      <c r="E319" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>543.66250000000002</v>
+      </c>
+      <c r="D320">
+        <v>87.28125</v>
+      </c>
+      <c r="E320" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>124.91875</v>
+      </c>
+      <c r="D321">
+        <v>27.871874999999999</v>
+      </c>
+      <c r="E321" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>796.98124999999982</v>
+      </c>
+      <c r="D322">
+        <v>75.615625000000009</v>
+      </c>
+      <c r="E322" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>738.00624999999991</v>
+      </c>
+      <c r="D323">
+        <v>88.162500000000009</v>
+      </c>
+      <c r="E323" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>104.38124999999999</v>
+      </c>
+      <c r="D324">
+        <v>26.368749999999999</v>
+      </c>
+      <c r="E324" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>926.86249999999995</v>
+      </c>
+      <c r="D325">
+        <v>87.612500000000011</v>
+      </c>
+      <c r="E325" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>864.20000000000027</v>
+      </c>
+      <c r="D326">
+        <v>93.731250000000003</v>
+      </c>
+      <c r="E326" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>137.61250000000001</v>
+      </c>
+      <c r="D327">
+        <v>29.831250000000001</v>
+      </c>
+      <c r="E327" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>852.03437500000007</v>
+      </c>
+      <c r="D328">
+        <v>90.771875000000009</v>
+      </c>
+      <c r="E328" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>749.31562500000007</v>
+      </c>
+      <c r="D329">
+        <v>90.140625</v>
+      </c>
+      <c r="E329" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>98.184374999999974</v>
+      </c>
+      <c r="D330">
+        <v>26.440625000000001</v>
+      </c>
+      <c r="E330" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>887.07812499999989</v>
+      </c>
+      <c r="D331">
+        <v>94.615625000000009</v>
+      </c>
+      <c r="E331" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>595.17500000000018</v>
+      </c>
+      <c r="D332">
+        <v>86.918750000000031</v>
+      </c>
+      <c r="E332" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <v>98.040625000000006</v>
+      </c>
+      <c r="D333">
+        <v>23.818750000000001</v>
+      </c>
+      <c r="E333" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>841.91562499999998</v>
+      </c>
+      <c r="D334">
+        <v>94.434375000000003</v>
+      </c>
+      <c r="E334" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>629.48125000000016</v>
+      </c>
+      <c r="D335">
+        <v>87.806250000000006</v>
+      </c>
+      <c r="E335" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>110.92812499999999</v>
+      </c>
+      <c r="D336">
+        <v>25.915625000000009</v>
+      </c>
+      <c r="E336" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>945.89687499999991</v>
+      </c>
+      <c r="D337">
+        <v>108.8625</v>
+      </c>
+      <c r="E337" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>860.03750000000002</v>
+      </c>
+      <c r="D338">
+        <v>94.674999999999983</v>
+      </c>
+      <c r="E338" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>128.86875000000001</v>
+      </c>
+      <c r="D339">
+        <v>30.406249999999989</v>
+      </c>
+      <c r="E339" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>779.11250000000007</v>
+      </c>
+      <c r="D340">
+        <v>100.97499999999999</v>
+      </c>
+      <c r="E340" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>1035.95</v>
+      </c>
+      <c r="D341">
+        <v>100.034375</v>
+      </c>
+      <c r="E341" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>191.0187499999999</v>
+      </c>
+      <c r="D342">
+        <v>31.165624999999999</v>
+      </c>
+      <c r="E342" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>730.47187499999995</v>
+      </c>
+      <c r="D343">
+        <v>93.040625000000006</v>
+      </c>
+      <c r="E343" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1187.6468749999999</v>
+      </c>
+      <c r="D344">
+        <v>112.878125</v>
+      </c>
+      <c r="E344" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>145.61562499999999</v>
+      </c>
+      <c r="D345">
+        <v>27.481249999999999</v>
+      </c>
+      <c r="E345" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>768.93437500000016</v>
+      </c>
+      <c r="D346">
+        <v>101.8875</v>
+      </c>
+      <c r="E346" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>1305.340625</v>
+      </c>
+      <c r="D347">
+        <v>119.55</v>
+      </c>
+      <c r="E347" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>135.66249999999999</v>
+      </c>
+      <c r="D348">
+        <v>32.209374999999987</v>
+      </c>
+      <c r="E348" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>985.71875</v>
+      </c>
+      <c r="D349">
+        <v>113.046875</v>
+      </c>
+      <c r="E349" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1486.4375</v>
+      </c>
+      <c r="D350">
+        <v>135.79374999999999</v>
+      </c>
+      <c r="E350" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>155.171875</v>
+      </c>
+      <c r="D351">
+        <v>33.037499999999987</v>
+      </c>
+      <c r="E351" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>963.25312500000007</v>
+      </c>
+      <c r="D352">
+        <v>107.71250000000001</v>
+      </c>
+      <c r="E352" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1097.9375</v>
+      </c>
+      <c r="D353">
+        <v>110.49062499999999</v>
+      </c>
+      <c r="E353" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>117.21875</v>
+      </c>
+      <c r="D354">
+        <v>32.725000000000001</v>
+      </c>
+      <c r="E354" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>1284.515625</v>
+      </c>
+      <c r="D355">
+        <v>114.175</v>
+      </c>
+      <c r="E355" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1066.346875</v>
+      </c>
+      <c r="D356">
+        <v>103.309375</v>
+      </c>
+      <c r="E356" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357">
+        <v>128.31874999999999</v>
+      </c>
+      <c r="D357">
+        <v>31.634374999999991</v>
+      </c>
+      <c r="E357" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>1236.7281250000001</v>
+      </c>
+      <c r="D358">
+        <v>122.35625</v>
+      </c>
+      <c r="E358" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>1232.54375</v>
+      </c>
+      <c r="D359">
+        <v>114.21250000000001</v>
+      </c>
+      <c r="E359" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>113.203125</v>
+      </c>
+      <c r="D360">
+        <v>29.296875</v>
+      </c>
+      <c r="E360" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>914.87812499999984</v>
+      </c>
+      <c r="D361">
+        <v>106.65625</v>
+      </c>
+      <c r="E361" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1479.6031250000001</v>
+      </c>
+      <c r="D362">
+        <v>128.92500000000001</v>
+      </c>
+      <c r="E362" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>101.75937500000001</v>
+      </c>
+      <c r="D363">
+        <v>28.03125</v>
+      </c>
+      <c r="E363" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>1401.6125</v>
+      </c>
+      <c r="D364">
+        <v>124.04062500000001</v>
+      </c>
+      <c r="E364" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>1623.903125</v>
+      </c>
+      <c r="D365">
+        <v>140.93437499999999</v>
+      </c>
+      <c r="E365" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>120.746875</v>
+      </c>
+      <c r="D366">
+        <v>26.640625</v>
+      </c>
+      <c r="E366" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>1536.128125</v>
+      </c>
+      <c r="D367">
+        <v>137.72499999999999</v>
+      </c>
+      <c r="E367" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1939.596875</v>
+      </c>
+      <c r="D368">
+        <v>151.35312500000001</v>
+      </c>
+      <c r="E368" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369">
+        <v>90.018749999999997</v>
+      </c>
+      <c r="D369">
+        <v>27.840624999999999</v>
+      </c>
+      <c r="E369" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>1168.0093750000001</v>
+      </c>
+      <c r="D370">
+        <v>127.003125</v>
+      </c>
+      <c r="E370" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>2005.071874999999</v>
+      </c>
+      <c r="D371">
+        <v>159.23750000000001</v>
+      </c>
+      <c r="E371" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>153.23437499999989</v>
+      </c>
+      <c r="D372">
+        <v>34.33124999999999</v>
+      </c>
+      <c r="E372" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>1041.54375</v>
+      </c>
+      <c r="D373">
+        <v>126.875</v>
+      </c>
+      <c r="E373" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1873.8843750000001</v>
+      </c>
+      <c r="D374">
+        <v>144.67500000000001</v>
+      </c>
+      <c r="E374" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375">
+        <v>117.22499999999999</v>
+      </c>
+      <c r="D375">
+        <v>24.515625</v>
+      </c>
+      <c r="E375" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>1169.51875</v>
+      </c>
+      <c r="D376">
+        <v>133.02812499999999</v>
+      </c>
+      <c r="E376" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1695.421875</v>
+      </c>
+      <c r="D377">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="E377" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>106.77187499999999</v>
+      </c>
+      <c r="D378">
+        <v>27.415624999999999</v>
+      </c>
+      <c r="E378" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379">
+        <v>1400.23125</v>
+      </c>
+      <c r="D379">
+        <v>155.12187499999999</v>
+      </c>
+      <c r="E379" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1632.0374999999999</v>
+      </c>
+      <c r="D380">
+        <v>144.60312500000001</v>
+      </c>
+      <c r="E380" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>122.84375</v>
+      </c>
+      <c r="D381">
+        <v>26.46875</v>
+      </c>
+      <c r="E381" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B382">
+        <v>3</v>
+      </c>
+      <c r="C382">
+        <v>1310.5562500000001</v>
+      </c>
+      <c r="D382">
+        <v>161.55000000000001</v>
+      </c>
+      <c r="E382" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>2074.2218750000002</v>
+      </c>
+      <c r="D383">
+        <v>159.64687499999999</v>
+      </c>
+      <c r="E383" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>219.91562500000001</v>
+      </c>
+      <c r="D384">
+        <v>39.375</v>
+      </c>
+      <c r="E384" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385">
+        <v>1236.5250000000001</v>
+      </c>
+      <c r="D385">
+        <v>154.27500000000001</v>
+      </c>
+      <c r="E385" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>2077.3156250000011</v>
+      </c>
+      <c r="D386">
+        <v>168.78125</v>
+      </c>
+      <c r="E386" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>203.30625000000001</v>
+      </c>
+      <c r="D387">
+        <v>39.193750000000001</v>
+      </c>
+      <c r="E387" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>1111.9906249999999</v>
+      </c>
+      <c r="D388">
+        <v>145.75624999999999</v>
+      </c>
+      <c r="E388" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>1955.15625</v>
+      </c>
+      <c r="D389">
+        <v>147.02500000000001</v>
+      </c>
+      <c r="E389" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390">
+        <v>188.66562500000001</v>
+      </c>
+      <c r="D390">
+        <v>42.731250000000003</v>
+      </c>
+      <c r="E390" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391">
+        <v>934.53437499999995</v>
+      </c>
+      <c r="D391">
+        <v>135.77187499999999</v>
+      </c>
+      <c r="E391" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>2038.1875</v>
+      </c>
+      <c r="D392">
+        <v>149.31874999999999</v>
+      </c>
+      <c r="E392" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>155.7156249999999</v>
+      </c>
+      <c r="D393">
+        <v>37.221874999999997</v>
+      </c>
+      <c r="E393" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>888.17500000000018</v>
+      </c>
+      <c r="D394">
+        <v>126.421875</v>
+      </c>
+      <c r="E394" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>1837.153125000001</v>
+      </c>
+      <c r="D395">
+        <v>132.17812499999999</v>
+      </c>
+      <c r="E395" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396">
+        <v>160.4375</v>
+      </c>
+      <c r="D396">
+        <v>35.393749999999997</v>
+      </c>
+      <c r="E396" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397">
+        <v>3</v>
+      </c>
+      <c r="C397">
+        <v>894.75625000000002</v>
+      </c>
+      <c r="D397">
+        <v>123.35625</v>
+      </c>
+      <c r="E397" t="s">
         <v>111</v>
       </c>
     </row>
